--- a/firebase_data_from_spyEnsembleVSM.xlsx
+++ b/firebase_data_from_spyEnsembleVSM.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA0CB2-B7FD-4060-BEF9-3E5FB88B127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -712,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="G14">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -781,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G17">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -804,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G18">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -827,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4210526315789472</v>
+        <v>0.42105263157894718</v>
       </c>
       <c r="G19">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -850,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G20">
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -919,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G23">
-        <v>0.4782608695652175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.47826086956521752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1011,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.4827586206896551</v>
+        <v>0.48275862068965508</v>
       </c>
       <c r="G27">
-        <v>0.5172413793103449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1103,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.4848484848484849</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="G31">
-        <v>0.5151515151515151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.4722222222222222</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="G33">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1172,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G34">
-        <v>0.4594594594594595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1333,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G41">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G42">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1379,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G43">
-        <v>0.4791666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G49">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1540,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G50">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G52">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1609,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G53">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1701,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G57">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1770,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G60">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G62">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1862,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G64">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1908,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G66">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1954,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G68">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2092,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G74">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2115,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G75">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2345,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G85">
-        <v>0.5454545454545455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.54545454545454553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2483,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.5476190476190477</v>
+        <v>0.54761904761904767</v>
       </c>
       <c r="G91">
-        <v>0.4523809523809524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2506,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.4761904761904762</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="G92">
-        <v>0.5238095238095238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2555,10 +2573,10 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="G94">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2575,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.6122448979591837</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="G95">
-        <v>0.3877551020408163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.38775510204081631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2621,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0.3725490196078431</v>
+        <v>0.37254901960784309</v>
       </c>
       <c r="G97">
-        <v>0.6274509803921569</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.62745098039215685</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2644,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.3653846153846154</v>
+        <v>0.36538461538461542</v>
       </c>
       <c r="G98">
-        <v>0.6346153846153846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.63461538461538458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2667,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G99">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2736,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G102">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G103">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2828,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G106">
-        <v>0.3714285714285714</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>0.37142857142857139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2851,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G107">
-        <v>0.3714285714285714</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0.37142857142857139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G109">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3012,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.3174603174603174</v>
+        <v>0.31746031746031739</v>
       </c>
       <c r="G114">
-        <v>0.6825396825396826</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>0.68253968253968256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.3432835820895522</v>
+        <v>0.34328358208955218</v>
       </c>
       <c r="G117">
-        <v>0.6567164179104478</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.65671641791044777</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.3235294117647058</v>
+        <v>0.32352941176470579</v>
       </c>
       <c r="G118">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.3382352941176471</v>
+        <v>0.33823529411764708</v>
       </c>
       <c r="G119">
-        <v>0.6617647058823529</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.66176470588235292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G123">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3242,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G124">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3265,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.6933333333333335</v>
+        <v>0.69333333333333347</v>
       </c>
       <c r="G125">
         <v>0.3066666666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0.3684210526315789</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="G127">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3334,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>0.6447368421052632</v>
+        <v>0.64473684210526316</v>
       </c>
       <c r="G128">
-        <v>0.3552631578947368</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>0.35526315789473678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3357,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0.6533333333333333</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="G129">
-        <v>0.3466666666666667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>0.34666666666666668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G130">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3403,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.3243243243243243</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="G131">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3426,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>0.3150684931506849</v>
+        <v>0.31506849315068491</v>
       </c>
       <c r="G132">
-        <v>0.6849315068493153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>0.68493150684931525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3449,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="G133">
-        <v>0.3513513513513514</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>0.35135135135135143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3472,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.6621621621621621</v>
+        <v>0.66216216216216206</v>
       </c>
       <c r="G134">
-        <v>0.3378378378378379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>0.33783783783783788</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3633,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>0.3205128205128205</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="G141">
-        <v>0.6794871794871795</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>0.67948717948717952</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="G144">
-        <v>0.6625000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>0.66250000000000009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G145">
-        <v>0.675</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3771,13 +3789,13 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0.3037974683544304</v>
+        <v>0.30379746835443039</v>
       </c>
       <c r="G147">
-        <v>0.6962025316455697</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>0.69620253164556967</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3817,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>0.6447368421052632</v>
+        <v>0.64473684210526316</v>
       </c>
       <c r="G149">
-        <v>0.3552631578947368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>0.35526315789473678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0.3466666666666667</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="G150">
-        <v>0.6533333333333333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.65333333333333332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3863,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="G151">
-        <v>0.3513513513513514</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>0.35135135135135143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3886,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>0.6575342465753424</v>
+        <v>0.65753424657534243</v>
       </c>
       <c r="G152">
-        <v>0.3424657534246576</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>0.34246575342465763</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G153">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.3150684931506849</v>
+        <v>0.31506849315068491</v>
       </c>
       <c r="G154">
-        <v>0.6849315068493153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>0.68493150684931525</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.3472222222222223</v>
+        <v>0.34722222222222232</v>
       </c>
       <c r="G155">
         <v>0.6527777777777779</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0.361111111111111</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="G158">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4047,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.657142857142857</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="G159">
-        <v>0.3428571428571429</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>0.34285714285714292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4070,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0.2898550724637681</v>
+        <v>0.28985507246376813</v>
       </c>
       <c r="G160">
-        <v>0.7101449275362319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>0.71014492753623193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0.3194444444444444</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="G166">
-        <v>0.6805555555555556</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>0.68055555555555558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4300,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>0.6712328767123288</v>
+        <v>0.67123287671232879</v>
       </c>
       <c r="G170">
-        <v>0.3287671232876712</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>0.32876712328767121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4323,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>0.3287671232876712</v>
+        <v>0.32876712328767121</v>
       </c>
       <c r="G171">
-        <v>0.6712328767123288</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>0.67123287671232879</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0.361111111111111</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="G174">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0.3472222222222223</v>
+        <v>0.34722222222222232</v>
       </c>
       <c r="G176">
         <v>0.6527777777777779</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>0.6619718309859155</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4484,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.3287671232876712</v>
+        <v>0.32876712328767121</v>
       </c>
       <c r="G178">
-        <v>0.6712328767123288</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>0.67123287671232879</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4507,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0.3378378378378379</v>
+        <v>0.33783783783783788</v>
       </c>
       <c r="G179">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4530,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0.3561643835616439</v>
+        <v>0.35616438356164393</v>
       </c>
       <c r="G180">
-        <v>0.6438356164383561</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>0.64383561643835607</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>0.6619718309859155</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4645,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0.3285714285714286</v>
+        <v>0.32857142857142863</v>
       </c>
       <c r="G185">
-        <v>0.6714285714285715</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>0.67142857142857149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4668,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0.3285714285714286</v>
+        <v>0.32857142857142863</v>
       </c>
       <c r="G186">
-        <v>0.6714285714285715</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>0.67142857142857149</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4737,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G189">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4806,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>0.3428571428571429</v>
+        <v>0.34285714285714292</v>
       </c>
       <c r="G192">
-        <v>0.657142857142857</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>0.65714285714285703</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4829,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0.3285714285714286</v>
+        <v>0.32857142857142863</v>
       </c>
       <c r="G193">
-        <v>0.6714285714285715</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>0.67142857142857149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4852,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G194">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0.3521126760563382</v>
+        <v>0.35211267605633823</v>
       </c>
       <c r="G196">
-        <v>0.6478873239436621</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.64788732394366211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0.3521126760563382</v>
+        <v>0.35211267605633823</v>
       </c>
       <c r="G197">
-        <v>0.6478873239436621</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.64788732394366211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>0.6619718309859155</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.3239436619718311</v>
+        <v>0.32394366197183111</v>
       </c>
       <c r="G199">
         <v>0.676056338028169</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4990,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G200">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0.3432835820895522</v>
+        <v>0.34328358208955218</v>
       </c>
       <c r="G201">
-        <v>0.6567164179104478</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.65671641791044777</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5036,13 +5054,13 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>0.6716417910447761</v>
+        <v>0.67164179104477606</v>
       </c>
       <c r="G202">
-        <v>0.3283582089552239</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>0.32835820895522388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G204">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0.3484848484848485</v>
+        <v>0.34848484848484851</v>
       </c>
       <c r="G205">
         <v>0.6515151515151516</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5128,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G206">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5174,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G208">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5220,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G210">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5335,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0.5681818181818182</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="G215">
-        <v>0.4318181818181818</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>0.43181818181818182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5381,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G217">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5404,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0.5777777777777778</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="G218">
-        <v>0.4222222222222223</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>0.42222222222222228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5427,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G219">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5450,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>0.4032258064516129</v>
+        <v>0.40322580645161288</v>
       </c>
       <c r="G220">
-        <v>0.596774193548387</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>0.59677419354838701</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5473,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0.4126984126984127</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="G221">
-        <v>0.5873015873015873</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.58730158730158732</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0.5652173913043479</v>
+        <v>0.56521739130434789</v>
       </c>
       <c r="G223">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.43478260869565222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5657,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>0.3777777777777779</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="G229">
-        <v>0.6222222222222222</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5703,13 +5721,13 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0.3555555555555556</v>
+        <v>0.35555555555555562</v>
       </c>
       <c r="G231">
-        <v>0.6444444444444444</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>0.64444444444444438</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5726,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>0.3777777777777779</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="G232">
-        <v>0.6222222222222222</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5749,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G233">
         <v>0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0.3829787234042554</v>
+        <v>0.38297872340425537</v>
       </c>
       <c r="G237">
-        <v>0.6170212765957447</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>0.61702127659574468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5867,10 +5885,10 @@
         <v>0.5957446808510638</v>
       </c>
       <c r="G238">
-        <v>0.4042553191489361</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.40425531914893609</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5910,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G240">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5933,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>0.7424242424242425</v>
+        <v>0.74242424242424254</v>
       </c>
       <c r="G241">
-        <v>0.2575757575757576</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>0.25757575757575762</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5956,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>0.4489795918367347</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="G242">
-        <v>0.5510204081632653</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>0.55102040816326525</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6002,13 +6020,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>0.7462686567164178</v>
+        <v>0.74626865671641784</v>
       </c>
       <c r="G244">
         <v>0.2537313432835821</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6051,10 +6069,10 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="G246">
-        <v>0.7462686567164178</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>0.74626865671641784</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>0.4029850746268657</v>
+        <v>0.40298507462686572</v>
       </c>
       <c r="G247">
-        <v>0.5970149253731343</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.59701492537313428</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6166,10 +6184,10 @@
         <v>0.625</v>
       </c>
       <c r="G251">
-        <v>0.3749999999999998</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.37499999999999978</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6186,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="F252">
-        <v>0.361111111111111</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="G252">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0.3561643835616439</v>
+        <v>0.35616438356164393</v>
       </c>
       <c r="G253">
-        <v>0.6438356164383561</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.64383561643835607</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6232,13 +6250,13 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>0.361111111111111</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="G254">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="G256">
-        <v>0.3714285714285714</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.37142857142857139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>0.391304347826087</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="G257">
-        <v>0.6086956521739131</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6439,13 +6457,13 @@
         <v>1</v>
       </c>
       <c r="F263">
-        <v>0.631578947368421</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="G263">
-        <v>0.3684210526315789</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6485,13 +6503,13 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>0.3026315789473684</v>
+        <v>0.30263157894736842</v>
       </c>
       <c r="G265">
-        <v>0.6973684210526316</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>0.69736842105263164</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6554,13 +6572,13 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <v>0.3066666666666666</v>
+        <v>0.30666666666666659</v>
       </c>
       <c r="G268">
-        <v>0.6933333333333335</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>0.69333333333333347</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6577,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G269">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6600,13 +6618,13 @@
         <v>1</v>
       </c>
       <c r="F270">
-        <v>0.3561643835616438</v>
+        <v>0.35616438356164382</v>
       </c>
       <c r="G270">
-        <v>0.6438356164383562</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>0.64383561643835618</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6623,13 +6641,13 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G271">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6646,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>0.3378378378378378</v>
+        <v>0.33783783783783777</v>
       </c>
       <c r="G272">
-        <v>0.6621621621621621</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>0.66216216216216206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6669,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0.3243243243243243</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="G273">
-        <v>0.6756756756756758</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>0.67567567567567577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6692,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0.3055555555555555</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="G274">
-        <v>0.6944444444444444</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6715,13 +6733,13 @@
         <v>1</v>
       </c>
       <c r="F275">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G275">
-        <v>0.5208333333333334</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6738,13 +6756,13 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>0.4693877551020408</v>
+        <v>0.46938775510204078</v>
       </c>
       <c r="G276">
-        <v>0.5306122448979592</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6807,13 +6825,13 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G279">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6876,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G282">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G283">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7037,13 +7055,13 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G289">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7060,13 +7078,13 @@
         <v>1</v>
       </c>
       <c r="F290">
-        <v>0.6612903225806452</v>
+        <v>0.66129032258064524</v>
       </c>
       <c r="G290">
-        <v>0.3387096774193549</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>0.33870967741935493</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7083,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="G291">
-        <v>0.2903225806451613</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>0.29032258064516131</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7129,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0.6721311475409837</v>
+        <v>0.67213114754098369</v>
       </c>
       <c r="G293">
-        <v>0.3278688524590164</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>0.32786885245901642</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G295">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G296">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7221,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>0.7121212121212122</v>
+        <v>0.71212121212121215</v>
       </c>
       <c r="G297">
-        <v>0.2878787878787878</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>0.28787878787878779</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>0.671875</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7336,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="F302">
-        <v>0.3333333333333334</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="G302">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7359,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>0.323076923076923</v>
+        <v>0.32307692307692298</v>
       </c>
       <c r="G303">
-        <v>0.6769230769230767</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>0.67692307692307674</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7382,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>0.3437500000000002</v>
+        <v>0.34375000000000022</v>
       </c>
       <c r="G304">
         <v>0.65625</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7428,13 +7446,13 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G306">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7451,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0.7121212121212122</v>
+        <v>0.71212121212121215</v>
       </c>
       <c r="G307">
-        <v>0.2878787878787878</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>0.28787878787878779</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G308">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7497,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G309">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7520,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>0.6818181818181818</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G310">
-        <v>0.3181818181818182</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7543,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0.3384615384615384</v>
+        <v>0.33846153846153842</v>
       </c>
       <c r="G311">
-        <v>0.6615384615384614</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>0.66153846153846141</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7566,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>0.6769230769230767</v>
+        <v>0.67692307692307674</v>
       </c>
       <c r="G312">
-        <v>0.323076923076923</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>0.32307692307692298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7589,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>0.3384615384615384</v>
+        <v>0.33846153846153842</v>
       </c>
       <c r="G313">
-        <v>0.6615384615384614</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>0.66153846153846141</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7612,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G314">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7658,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G316">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7704,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="F318">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G318">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7727,13 +7745,13 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G319">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="F320">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G320">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>1</v>
       </c>
       <c r="F322">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G322">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G323">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7842,13 +7860,13 @@
         <v>1</v>
       </c>
       <c r="F324">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G324">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="F326">
-        <v>0.3235294117647058</v>
+        <v>0.32352941176470579</v>
       </c>
       <c r="G326">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>1</v>
       </c>
       <c r="F328">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G328">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7980,13 +7998,13 @@
         <v>0</v>
       </c>
       <c r="F330">
-        <v>0.3943661971830986</v>
+        <v>0.39436619718309862</v>
       </c>
       <c r="G330">
-        <v>0.6056338028169015</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.60563380281690149</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>1</v>
       </c>
       <c r="F331">
-        <v>0.2916666666666667</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G331">
-        <v>0.7083333333333333</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>0.6849315068493153</v>
+        <v>0.68493150684931525</v>
       </c>
       <c r="G334">
-        <v>0.3150684931506849</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.31506849315068491</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8095,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="F335">
-        <v>0.6891891891891891</v>
+        <v>0.68918918918918914</v>
       </c>
       <c r="G335">
         <v>0.3108108108108108</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="F336">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="G336">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8141,13 +8159,13 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>0.6986301369863014</v>
+        <v>0.69863013698630139</v>
       </c>
       <c r="G337">
-        <v>0.3013698630136986</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>0.30136986301369861</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="F338">
-        <v>0.5915492957746479</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="G338">
-        <v>0.4084507042253522</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.40845070422535218</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>1</v>
       </c>
       <c r="F339">
-        <v>0.2916666666666667</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G339">
-        <v>0.7083333333333333</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8216,7 +8234,7 @@
         <v>0.3098591549295775</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8256,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="F342">
-        <v>0.3194444444444444</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="G342">
-        <v>0.6805555555555556</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.68055555555555558</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8279,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="F343">
-        <v>0.3943661971830986</v>
+        <v>0.39436619718309862</v>
       </c>
       <c r="G343">
-        <v>0.6056338028169015</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.60563380281690149</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8302,13 +8320,13 @@
         <v>1</v>
       </c>
       <c r="F344">
-        <v>0.3857142857142857</v>
+        <v>0.38571428571428568</v>
       </c>
       <c r="G344">
-        <v>0.6142857142857143</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>0.61428571428571432</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="F345">
-        <v>0.7285714285714286</v>
+        <v>0.72857142857142865</v>
       </c>
       <c r="G345">
-        <v>0.2714285714285714</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.27142857142857141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G346">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8417,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G349">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0.5434782608695652</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G350">
-        <v>0.4565217391304348</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8486,13 +8504,13 @@
         <v>1</v>
       </c>
       <c r="F352">
-        <v>0.5416666666666667</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="G352">
-        <v>0.4583333333333334</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>0.45833333333333343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8555,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="F355">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G355">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8578,13 +8596,13 @@
         <v>0</v>
       </c>
       <c r="F356">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G356">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8601,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G357">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G363">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="F364">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G364">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8785,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G365">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="F366">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G366">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8854,13 +8872,13 @@
         <v>0</v>
       </c>
       <c r="F368">
-        <v>0.4878048780487805</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="G368">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>0.51219512195121952</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8900,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="F370">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G370">
-        <v>0.4749999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>0.47499999999999992</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8923,13 +8941,13 @@
         <v>1</v>
       </c>
       <c r="F371">
-        <v>0.5384615384615385</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="G371">
-        <v>0.4615384615384615</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8969,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0.5526315789473685</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="G373">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9015,13 +9033,13 @@
         <v>0</v>
       </c>
       <c r="F375">
-        <v>0.6949152542372882</v>
+        <v>0.69491525423728817</v>
       </c>
       <c r="G375">
-        <v>0.3050847457627119</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
+        <v>0.30508474576271188</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9061,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="F377">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G377">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9136,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9159,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9182,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="F384">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G384">
-        <v>0.6363636363636365</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.63636363636363646</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9245,13 +9263,13 @@
         <v>0</v>
       </c>
       <c r="F385">
-        <v>0.5675675675675677</v>
+        <v>0.56756756756756765</v>
       </c>
       <c r="G385">
         <v>0.4324324324324324</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9320,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9340,10 +9358,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="G389">
-        <v>0.4358974358974358</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>0.43589743589743579</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>1</v>
       </c>
       <c r="F391">
-        <v>0.3934426229508198</v>
+        <v>0.39344262295081978</v>
       </c>
       <c r="G391">
-        <v>0.6065573770491803</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.60655737704918034</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9406,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="F392">
-        <v>0.7301587301587301</v>
+        <v>0.73015873015873012</v>
       </c>
       <c r="G392">
-        <v>0.2698412698412698</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+        <v>0.26984126984126983</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9475,13 +9493,13 @@
         <v>1</v>
       </c>
       <c r="F395">
-        <v>0.3050847457627119</v>
+        <v>0.30508474576271188</v>
       </c>
       <c r="G395">
-        <v>0.6949152542372882</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>0.69491525423728817</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9521,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>0.3064516129032258</v>
+        <v>0.30645161290322581</v>
       </c>
       <c r="G397">
-        <v>0.6935483870967742</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>0.69354838709677424</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9544,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="F398">
-        <v>0.3548387096774194</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="G398">
-        <v>0.6451612903225806</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9567,13 +9585,13 @@
         <v>1</v>
       </c>
       <c r="F399">
-        <v>0.6612903225806451</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G399">
-        <v>0.3387096774193549</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>0.33870967741935493</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>1</v>
       </c>
       <c r="F400">
-        <v>0.3442622950819673</v>
+        <v>0.34426229508196732</v>
       </c>
       <c r="G400">
-        <v>0.6557377049180328</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.65573770491803285</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9613,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0.3442622950819673</v>
+        <v>0.34426229508196732</v>
       </c>
       <c r="G401">
-        <v>0.6557377049180328</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.65573770491803285</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9728,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G406">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>1</v>
       </c>
       <c r="F413">
-        <v>0.4651162790697674</v>
+        <v>0.46511627906976738</v>
       </c>
       <c r="G413">
-        <v>0.5348837209302326</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.53488372093023262</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9918,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10010,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10027,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>0.4565217391304348</v>
+        <v>0.45652173913043481</v>
       </c>
       <c r="G419">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10050,13 +10068,13 @@
         <v>0</v>
       </c>
       <c r="F420">
-        <v>0.5434782608695652</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G420">
-        <v>0.4565217391304348</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10073,13 +10091,13 @@
         <v>1</v>
       </c>
       <c r="F421">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G421">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10096,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="F422">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G422">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10211,13 +10229,13 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G427">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10257,13 +10275,13 @@
         <v>1</v>
       </c>
       <c r="F429">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G429">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10280,13 +10298,13 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>0.3650793650793651</v>
+        <v>0.36507936507936511</v>
       </c>
       <c r="G430">
-        <v>0.6349206349206349</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>0.63492063492063489</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10309,7 +10327,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>1</v>
       </c>
       <c r="F432">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G432">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10372,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0.3623188405797101</v>
+        <v>0.36231884057971009</v>
       </c>
       <c r="G434">
         <v>0.6376811594202898</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10395,13 +10413,13 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>0.6567164179104478</v>
+        <v>0.65671641791044777</v>
       </c>
       <c r="G435">
-        <v>0.3432835820895522</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.34328358208955218</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="F436">
-        <v>0.2835820895522388</v>
+        <v>0.28358208955223879</v>
       </c>
       <c r="G436">
-        <v>0.7164179104477613</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.71641791044776126</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10556,13 +10574,13 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>0.5476190476190477</v>
+        <v>0.54761904761904767</v>
       </c>
       <c r="G442">
-        <v>0.4523809523809524</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10602,13 +10620,13 @@
         <v>1</v>
       </c>
       <c r="F444">
-        <v>0.5581395348837209</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="G444">
-        <v>0.4418604651162791</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.44186046511627908</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10671,13 +10689,13 @@
         <v>1</v>
       </c>
       <c r="F447">
-        <v>0.5581395348837209</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="G447">
-        <v>0.4418604651162791</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+        <v>0.44186046511627908</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10717,13 +10735,13 @@
         <v>0</v>
       </c>
       <c r="F449">
-        <v>0.4418604651162791</v>
+        <v>0.44186046511627908</v>
       </c>
       <c r="G449">
-        <v>0.5581395348837209</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10740,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="F450">
-        <v>0.4523809523809524</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="G450">
-        <v>0.5476190476190477</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10769,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10815,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10901,13 +10919,13 @@
         <v>1</v>
       </c>
       <c r="F457">
-        <v>0.3538461538461538</v>
+        <v>0.35384615384615381</v>
       </c>
       <c r="G457">
-        <v>0.6461538461538461</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+        <v>0.64615384615384608</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>0.640625</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10999,7 +11017,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11062,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="F464">
-        <v>0.3538461538461539</v>
+        <v>0.35384615384615392</v>
       </c>
       <c r="G464">
-        <v>0.6461538461538461</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+        <v>0.64615384615384608</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>0.3437500000000002</v>
+        <v>0.34375000000000022</v>
       </c>
       <c r="G466">
         <v>0.65625</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11131,13 +11149,13 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>0.3333333333333334</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="G467">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11154,13 +11172,13 @@
         <v>1</v>
       </c>
       <c r="F468">
-        <v>0.3709677419354838</v>
+        <v>0.37096774193548382</v>
       </c>
       <c r="G468">
-        <v>0.6290322580645161</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+        <v>0.62903225806451613</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11183,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11206,7 +11224,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11252,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11275,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11505,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11574,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11597,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11620,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11637,13 +11655,13 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0.278688524590164</v>
+        <v>0.27868852459016402</v>
       </c>
       <c r="G489">
-        <v>0.7213114754098361</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>0.72131147540983609</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11660,13 +11678,13 @@
         <v>1</v>
       </c>
       <c r="F490">
-        <v>0.2833333333333334</v>
+        <v>0.28333333333333338</v>
       </c>
       <c r="G490">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11706,13 +11724,13 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>0.2741935483870968</v>
+        <v>0.27419354838709681</v>
       </c>
       <c r="G492">
-        <v>0.7258064516129032</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>0.72580645161290325</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11729,13 +11747,13 @@
         <v>1</v>
       </c>
       <c r="F493">
-        <v>0.2950819672131147</v>
+        <v>0.29508196721311469</v>
       </c>
       <c r="G493">
-        <v>0.7049180327868854</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>0.70491803278688536</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11758,7 +11776,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11804,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11827,7 +11845,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11850,7 +11868,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11873,7 +11891,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11893,10 +11911,10 @@
         <v>0.3559322033898305</v>
       </c>
       <c r="G500">
-        <v>0.6440677966101694</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
+        <v>0.64406779661016944</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11919,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11942,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11965,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11988,12 +12006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12011,12 +12029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -12034,12 +12052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -12051,18 +12069,18 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>0.6441</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="G507">
-        <v>0.3558999999999999</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.35589999999999988</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -12074,18 +12092,18 @@
         <v>1</v>
       </c>
       <c r="F508">
-        <v>0.3607</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="G508">
-        <v>0.6393</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.63929999999999998</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -12103,12 +12121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -12120,18 +12138,18 @@
         <v>1</v>
       </c>
       <c r="F510">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G510">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -12149,12 +12167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -12172,12 +12190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -12189,18 +12207,18 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>0.4651</v>
+        <v>0.46510000000000001</v>
       </c>
       <c r="G513">
-        <v>0.5349</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7">
+        <v>0.53490000000000004</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12212,18 +12230,18 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>0.4772999999999999</v>
+        <v>0.47729999999999989</v>
       </c>
       <c r="G514">
-        <v>0.5227000000000001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
+        <v>0.52270000000000005</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12281,18 +12299,18 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>0.3051</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="G517">
-        <v>0.6949</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
+        <v>0.69489999999999996</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,12 +12374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>1</v>

--- a/firebase_data_from_spyEnsembleVSM.xlsx
+++ b/firebase_data_from_spyEnsembleVSM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="709">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2492,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2570,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2700,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2726,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2752,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2778,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2830,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2856,7 +2862,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2908,7 +2914,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2934,7 +2940,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2960,7 +2966,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2986,7 +2992,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3012,7 +3018,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3038,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3064,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3090,7 +3096,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3116,7 +3122,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3142,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3168,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3194,7 +3200,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3220,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3246,7 +3252,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3272,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3298,7 +3304,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3324,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3350,7 +3356,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3376,7 +3382,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3402,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3428,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3454,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3480,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3506,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3532,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3558,7 +3564,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3584,7 +3590,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3610,7 +3616,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3636,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3688,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3714,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3740,7 +3746,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3766,7 +3772,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3792,7 +3798,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3818,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3844,7 +3850,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3870,7 +3876,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3896,7 +3902,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3922,7 +3928,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3948,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3974,7 +3980,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4000,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4026,7 +4032,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4052,7 +4058,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H60" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4078,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4104,7 +4110,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4156,7 +4162,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H64" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4182,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4208,7 +4214,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4234,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4260,7 +4266,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4338,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4364,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4390,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4416,7 +4422,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4442,7 +4448,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4468,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4494,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4520,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4546,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4572,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4598,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4624,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4650,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4676,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4702,7 +4708,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H85" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4728,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4754,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4780,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4806,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4832,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4858,7 +4864,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4884,7 +4890,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4910,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4936,7 +4942,7 @@
         <v>0.14</v>
       </c>
       <c r="H94" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4962,7 +4968,7 @@
         <v>0.3877551020408163</v>
       </c>
       <c r="H95" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4988,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5014,7 +5020,7 @@
         <v>0.6274509803921569</v>
       </c>
       <c r="H97" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5040,7 +5046,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H98" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5066,7 +5072,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H99" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5092,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5144,7 +5150,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H102" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5170,7 +5176,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5196,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5222,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5248,7 +5254,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H106" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5274,7 +5280,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H107" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5300,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5326,7 +5332,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H109" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5352,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5378,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5404,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5430,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5456,7 +5462,7 @@
         <v>0.6825396825396826</v>
       </c>
       <c r="H114" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5482,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5508,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5534,7 +5540,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H117" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5560,7 +5566,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H118" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5586,7 +5592,7 @@
         <v>0.6617647058823529</v>
       </c>
       <c r="H119" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5612,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5638,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5664,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5690,7 +5696,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H123" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5716,7 +5722,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H124" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5742,7 +5748,7 @@
         <v>0.3066666666666667</v>
       </c>
       <c r="H125" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5768,7 +5774,7 @@
         <v>0.32</v>
       </c>
       <c r="H126" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5794,7 +5800,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="H127" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5820,7 +5826,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H128" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5846,7 +5852,7 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="H129" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5872,7 +5878,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H130" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5898,7 +5904,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="H131" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5924,7 +5930,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H132" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5950,7 +5956,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H133" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5976,7 +5982,7 @@
         <v>0.3378378378378379</v>
       </c>
       <c r="H134" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6002,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6028,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6054,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6080,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6106,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6132,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6158,7 +6164,7 @@
         <v>0.6794871794871795</v>
       </c>
       <c r="H141" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6184,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6210,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6236,7 +6242,7 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="H144" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6262,7 +6268,7 @@
         <v>0.675</v>
       </c>
       <c r="H145" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6288,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6314,7 +6320,7 @@
         <v>0.6962025316455697</v>
       </c>
       <c r="H147" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6340,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6366,7 +6372,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H149" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6392,7 +6398,7 @@
         <v>0.6533333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6418,7 +6424,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H151" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6444,7 +6450,7 @@
         <v>0.3424657534246576</v>
       </c>
       <c r="H152" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6470,7 +6476,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6496,7 +6502,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H154" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6522,7 +6528,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H155" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6548,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6574,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6600,7 +6606,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H158" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6626,7 +6632,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H159" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6652,7 +6658,7 @@
         <v>0.7101449275362319</v>
       </c>
       <c r="H160" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6678,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6704,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6730,7 +6736,7 @@
         <v>0.7</v>
       </c>
       <c r="H163" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6756,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6782,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6808,7 +6814,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H166" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6834,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6860,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6886,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6912,7 +6918,7 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="H170" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6938,7 +6944,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H171" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6964,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6990,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7016,7 +7022,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H174" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7042,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7068,7 +7074,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H176" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7094,7 +7100,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H177" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7120,7 +7126,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H178" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7146,7 +7152,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H179" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7172,7 +7178,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H180" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7198,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7224,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7250,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7276,7 +7282,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H184" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7302,7 +7308,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H185" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7328,7 +7334,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H186" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7354,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7380,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7406,7 +7412,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H189" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7432,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7458,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7484,7 +7490,7 @@
         <v>0.657142857142857</v>
       </c>
       <c r="H192" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7510,7 +7516,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H193" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7536,7 +7542,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H194" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7562,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7588,7 +7594,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H196" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7614,7 +7620,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H197" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7640,7 +7646,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H198" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7666,7 +7672,7 @@
         <v>0.676056338028169</v>
       </c>
       <c r="H199" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7692,7 +7698,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H200" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7718,7 +7724,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H201" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7744,7 +7750,7 @@
         <v>0.3283582089552239</v>
       </c>
       <c r="H202" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7770,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7796,7 +7802,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H204" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7822,7 +7828,7 @@
         <v>0.6515151515151516</v>
       </c>
       <c r="H205" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7848,7 +7854,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7874,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7900,7 +7906,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7926,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7952,7 +7958,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7978,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8004,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8030,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8056,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8082,7 +8088,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H215" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8108,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8134,7 +8140,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8160,7 +8166,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8186,7 +8192,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8212,7 +8218,7 @@
         <v>0.596774193548387</v>
       </c>
       <c r="H220" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8238,7 +8244,7 @@
         <v>0.5873015873015873</v>
       </c>
       <c r="H221" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8264,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8290,7 +8296,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8316,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8342,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8368,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8394,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8420,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8446,7 +8452,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H229" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8472,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8498,7 +8504,7 @@
         <v>0.6444444444444444</v>
       </c>
       <c r="H231" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8524,7 +8530,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H232" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8550,7 +8556,7 @@
         <v>0.4</v>
       </c>
       <c r="H233" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8576,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8602,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8628,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8654,7 +8660,7 @@
         <v>0.6170212765957447</v>
       </c>
       <c r="H237" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8680,7 +8686,7 @@
         <v>0.4042553191489361</v>
       </c>
       <c r="H238" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8706,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8732,7 +8738,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H240" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8758,7 +8764,7 @@
         <v>0.2575757575757576</v>
       </c>
       <c r="H241" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8784,7 +8790,7 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="H242" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8810,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8836,7 +8842,7 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="H244" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8862,7 +8868,7 @@
         <v>0.25</v>
       </c>
       <c r="H245" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8888,7 +8894,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="H246" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8914,7 +8920,7 @@
         <v>0.5970149253731343</v>
       </c>
       <c r="H247" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8940,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8966,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8992,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9018,7 +9024,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H251" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9044,7 +9050,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H252" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9070,7 +9076,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H253" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9096,7 +9102,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H254" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9122,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9148,7 +9154,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H256" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9174,7 +9180,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H257" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9200,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9226,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9252,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9278,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9304,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9330,7 +9336,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H263" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9356,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9382,7 +9388,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H265" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9408,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9434,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9460,7 +9466,7 @@
         <v>0.6933333333333335</v>
       </c>
       <c r="H268" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9486,7 +9492,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H269" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9512,7 +9518,7 @@
         <v>0.6438356164383562</v>
       </c>
       <c r="H270" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9538,7 +9544,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H271" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9564,7 +9570,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H272" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9590,7 +9596,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H273" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9616,7 +9622,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H274" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9642,7 +9648,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9668,7 +9674,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9694,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9720,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9746,7 +9752,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9772,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9798,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9824,7 +9830,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9850,7 +9856,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9876,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9902,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9928,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9954,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9980,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10006,7 +10012,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10032,7 +10038,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H290" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10058,7 +10064,7 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="H291" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10084,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10110,7 +10116,7 @@
         <v>0.3278688524590164</v>
       </c>
       <c r="H293" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10136,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10162,7 +10168,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H295" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10188,7 +10194,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H296" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10214,7 +10220,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H297" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10240,7 +10246,7 @@
         <v>0.6</v>
       </c>
       <c r="H298" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10266,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10292,7 +10298,7 @@
         <v>0.671875</v>
       </c>
       <c r="H300" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10318,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10344,7 +10350,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H302" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10370,7 +10376,7 @@
         <v>0.6769230769230767</v>
       </c>
       <c r="H303" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10396,7 +10402,7 @@
         <v>0.65625</v>
       </c>
       <c r="H304" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10422,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10448,7 +10454,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H306" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10474,7 +10480,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H307" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10500,7 +10506,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H308" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10526,7 +10532,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H309" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10552,7 +10558,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H310" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10578,7 +10584,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H311" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10604,7 +10610,7 @@
         <v>0.323076923076923</v>
       </c>
       <c r="H312" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10630,7 +10636,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H313" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10656,7 +10662,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H314" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10682,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10708,7 +10714,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H316" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10734,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10760,7 +10766,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H318" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10786,7 +10792,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H319" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10812,7 +10818,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H320" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10838,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10864,7 +10870,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H322" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10890,7 +10896,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H323" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10916,7 +10922,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10942,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10968,7 +10974,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H326" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10994,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11020,7 +11026,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H328" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11046,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11072,7 +11078,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H330" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11098,7 +11104,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H331" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11124,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11150,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11176,7 +11182,7 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="H334" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11202,7 +11208,7 @@
         <v>0.3108108108108108</v>
       </c>
       <c r="H335" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11228,7 +11234,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H336" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11254,7 +11260,7 @@
         <v>0.3013698630136986</v>
       </c>
       <c r="H337" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11280,7 +11286,7 @@
         <v>0.4084507042253522</v>
       </c>
       <c r="H338" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11306,7 +11312,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11332,7 +11338,7 @@
         <v>0.3098591549295775</v>
       </c>
       <c r="H340" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11358,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11384,7 +11390,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H342" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11410,7 +11416,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H343" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11436,7 +11442,7 @@
         <v>0.6142857142857143</v>
       </c>
       <c r="H344" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11462,7 +11468,7 @@
         <v>0.2714285714285714</v>
       </c>
       <c r="H345" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11488,7 +11494,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11514,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11540,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11566,7 +11572,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11592,7 +11598,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11618,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11644,7 +11650,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11670,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11696,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11722,7 +11728,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11748,7 +11754,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11774,7 +11780,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11800,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11826,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11852,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11878,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11904,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11930,7 +11936,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H363" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11956,7 +11962,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H364" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11982,7 +11988,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H365" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12008,7 +12014,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H366" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12034,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12060,7 +12066,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H368" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12086,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12112,7 +12118,7 @@
         <v>0.4749999999999999</v>
       </c>
       <c r="H370" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12138,7 +12144,7 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="H371" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12164,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12190,7 +12196,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H373" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12216,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12242,7 +12248,7 @@
         <v>0.3050847457627119</v>
       </c>
       <c r="H375" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12268,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12294,7 +12300,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H377" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12320,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12346,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12372,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12398,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12424,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12450,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12476,7 +12482,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="H384" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12502,7 +12508,7 @@
         <v>0.4324324324324324</v>
       </c>
       <c r="H385" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12554,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12580,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12606,7 +12612,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H389" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12632,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12658,7 +12664,7 @@
         <v>0.6065573770491803</v>
       </c>
       <c r="H391" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12684,7 +12690,7 @@
         <v>0.2698412698412698</v>
       </c>
       <c r="H392" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12710,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12736,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12762,7 +12768,7 @@
         <v>0.6949152542372882</v>
       </c>
       <c r="H395" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12788,7 +12794,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12814,7 +12820,7 @@
         <v>0.6935483870967742</v>
       </c>
       <c r="H397" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12840,7 +12846,7 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="H398" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12866,7 +12872,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H399" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12892,7 +12898,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H400" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12918,7 +12924,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H401" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12944,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12970,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12996,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13022,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13048,7 +13054,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13074,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13100,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13126,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13152,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13178,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13204,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13230,7 +13236,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13256,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13282,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13308,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13334,7 +13340,7 @@
         <v>0.296875</v>
       </c>
       <c r="H417" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13360,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13386,7 +13392,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H419" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13412,7 +13418,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H420" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13438,7 +13444,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H421" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13464,7 +13470,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H422" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13490,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13516,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13542,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13568,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13594,7 +13600,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H427" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13620,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13646,7 +13652,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H429" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13672,7 +13678,7 @@
         <v>0.6349206349206349</v>
       </c>
       <c r="H430" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13698,7 +13704,7 @@
         <v>0.296875</v>
       </c>
       <c r="H431" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13724,7 +13730,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H432" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13750,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13776,7 +13782,7 @@
         <v>0.6376811594202898</v>
       </c>
       <c r="H434" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13802,7 +13808,7 @@
         <v>0.3432835820895522</v>
       </c>
       <c r="H435" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13828,7 +13834,7 @@
         <v>0.7164179104477613</v>
       </c>
       <c r="H436" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13854,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13880,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13906,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13932,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13958,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13984,7 +13990,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14010,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14036,7 +14042,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14062,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14088,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14114,7 +14120,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H447" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14140,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14166,7 +14172,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H449" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14192,7 +14198,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14218,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14244,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14270,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14296,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14322,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14348,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14374,7 +14380,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H457" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14400,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14426,7 +14432,7 @@
         <v>0.640625</v>
       </c>
       <c r="H459" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14452,7 +14458,7 @@
         <v>0.3125</v>
       </c>
       <c r="H460" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14478,7 +14484,7 @@
         <v>0.625</v>
       </c>
       <c r="H461" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14504,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14530,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14556,7 +14562,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H464" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14582,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14608,7 +14614,7 @@
         <v>0.65625</v>
       </c>
       <c r="H466" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14634,7 +14640,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H467" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14660,7 +14666,7 @@
         <v>0.6290322580645161</v>
       </c>
       <c r="H468" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14686,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14712,7 +14718,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H470" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14738,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14764,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14790,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14816,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14842,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14868,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14894,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14920,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14946,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14972,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14998,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15024,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15050,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15076,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15102,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15128,7 +15134,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15154,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15180,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15206,7 +15212,7 @@
         <v>0.7213114754098361</v>
       </c>
       <c r="H489" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15232,7 +15238,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H490" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15258,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15284,7 +15290,7 @@
         <v>0.7258064516129032</v>
       </c>
       <c r="H492" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15310,7 +15316,7 @@
         <v>0.7049180327868854</v>
       </c>
       <c r="H493" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15336,7 +15342,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15362,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15388,7 +15394,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15414,7 +15420,7 @@
         <v>0.7</v>
       </c>
       <c r="H497" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15440,7 +15446,7 @@
         <v>0.7</v>
       </c>
       <c r="H498" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15466,7 +15472,7 @@
         <v>0.35</v>
       </c>
       <c r="H499" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15492,7 +15498,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="H500" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15518,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15544,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15570,7 +15576,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15596,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15622,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15648,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15674,7 +15680,7 @@
         <v>0.3558999999999999</v>
       </c>
       <c r="H507" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15700,7 +15706,7 @@
         <v>0.6393</v>
       </c>
       <c r="H508" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15726,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15752,7 +15758,7 @@
         <v>0.525</v>
       </c>
       <c r="H510" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15778,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15804,7 +15810,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15830,7 +15836,7 @@
         <v>0.5349</v>
       </c>
       <c r="H513" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15856,7 +15862,7 @@
         <v>0.5227000000000001</v>
       </c>
       <c r="H514" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15882,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15908,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15934,7 +15940,7 @@
         <v>0.6949</v>
       </c>
       <c r="H517" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15960,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15986,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16012,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16038,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16064,7 +16070,7 @@
         <v>0.5238</v>
       </c>
       <c r="H522" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16090,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16116,7 +16122,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16142,7 +16148,7 @@
         <v>0.6934999999999999</v>
       </c>
       <c r="H525" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16168,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16194,7 +16200,7 @@
         <v>0.6562</v>
       </c>
       <c r="H527" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16220,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16246,7 +16252,7 @@
         <v>0.3548000000000001</v>
       </c>
       <c r="H529" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16272,7 +16278,7 @@
         <v>0.65</v>
       </c>
       <c r="H530" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16298,7 +16304,7 @@
         <v>0.6721</v>
       </c>
       <c r="H531" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16324,7 +16330,7 @@
         <v>0.6721</v>
       </c>
       <c r="H532" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16350,7 +16356,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16376,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16402,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16428,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16454,7 +16460,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16480,7 +16486,7 @@
         <v>0.5366</v>
       </c>
       <c r="H538" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16506,7 +16512,7 @@
         <v>0.5122</v>
       </c>
       <c r="H539" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16532,7 +16538,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16558,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16584,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16610,7 +16616,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16636,7 +16642,7 @@
         <v>0.5263</v>
       </c>
       <c r="H544" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16662,7 +16668,7 @@
         <v>0.5263</v>
       </c>
       <c r="H545" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16688,7 +16694,7 @@
         <v>0.5135</v>
       </c>
       <c r="H546" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16714,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16740,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16766,7 +16772,7 @@
         <v>0.4872</v>
       </c>
       <c r="H549" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16792,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16818,7 +16824,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16844,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16870,7 +16876,7 @@
         <v>0.5122</v>
       </c>
       <c r="H553" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16896,7 +16902,7 @@
         <v>0.5238</v>
       </c>
       <c r="H554" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16922,7 +16928,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16948,7 +16954,7 @@
         <v>0.5349</v>
       </c>
       <c r="H556" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16974,7 +16980,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H557" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17000,7 +17006,7 @@
         <v>0.5238</v>
       </c>
       <c r="H558" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17026,7 +17032,7 @@
         <v>0.5122</v>
       </c>
       <c r="H559" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17052,7 +17058,7 @@
         <v>0.4878</v>
       </c>
       <c r="H560" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17078,7 +17084,7 @@
         <v>0.4878</v>
       </c>
       <c r="H561" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17088,9 +17094,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -17098,7 +17110,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0.5128</v>
+      </c>
+      <c r="G564">
+        <v>0.4872</v>
+      </c>
+      <c r="H564" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSM.xlsx
+++ b/firebase_data_from_spyEnsembleVSM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="713">
   <si>
     <t>date</t>
   </si>
@@ -1726,6 +1726,12 @@
     <t>2025-08-27</t>
   </si>
   <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2141,6 +2147,12 @@
   </si>
   <si>
     <t>51.28</t>
+  </si>
+  <si>
+    <t>65.45</t>
+  </si>
+  <si>
+    <t>66.07</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2550,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2576,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2602,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2628,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2654,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2680,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2706,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2732,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2758,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2784,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2810,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2836,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2862,7 +2874,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2888,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2914,7 +2926,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2940,7 +2952,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2966,7 +2978,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2992,7 +3004,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3018,7 +3030,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3044,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3070,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3096,7 +3108,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3122,7 +3134,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3148,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3174,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3200,7 +3212,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3226,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3252,7 +3264,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3278,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3304,7 +3316,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3330,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3356,7 +3368,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3382,7 +3394,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3408,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3434,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3460,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3486,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3512,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3538,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3564,7 +3576,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3590,7 +3602,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3616,7 +3628,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3642,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3668,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3694,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3720,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3746,7 +3758,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3772,7 +3784,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3798,7 +3810,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3824,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3850,7 +3862,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3876,7 +3888,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3902,7 +3914,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3928,7 +3940,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3954,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3980,7 +3992,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4006,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4032,7 +4044,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4058,7 +4070,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H60" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4084,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4110,7 +4122,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4136,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4162,7 +4174,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H64" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4188,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4214,7 +4226,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4240,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4266,7 +4278,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4292,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4318,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4344,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4370,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4396,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4422,7 +4434,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4448,7 +4460,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4474,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4500,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4526,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4552,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4578,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4604,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4630,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4656,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4682,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4708,7 +4720,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H85" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4734,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4760,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4786,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4812,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4838,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4864,7 +4876,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4890,7 +4902,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4916,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4942,7 +4954,7 @@
         <v>0.14</v>
       </c>
       <c r="H94" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4968,7 +4980,7 @@
         <v>0.3877551020408163</v>
       </c>
       <c r="H95" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4994,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5020,7 +5032,7 @@
         <v>0.6274509803921569</v>
       </c>
       <c r="H97" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5046,7 +5058,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H98" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5072,7 +5084,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H99" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5098,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5124,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5150,7 +5162,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H102" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5176,7 +5188,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5202,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5228,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5254,7 +5266,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H106" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5280,7 +5292,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H107" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5306,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5332,7 +5344,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H109" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5358,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5384,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5410,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5436,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5462,7 +5474,7 @@
         <v>0.6825396825396826</v>
       </c>
       <c r="H114" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5488,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5514,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5540,7 +5552,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H117" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5566,7 +5578,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H118" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5592,7 +5604,7 @@
         <v>0.6617647058823529</v>
       </c>
       <c r="H119" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5618,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5644,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5670,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5696,7 +5708,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H123" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5722,7 +5734,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H124" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5748,7 +5760,7 @@
         <v>0.3066666666666667</v>
       </c>
       <c r="H125" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5774,7 +5786,7 @@
         <v>0.32</v>
       </c>
       <c r="H126" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5800,7 +5812,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="H127" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5826,7 +5838,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H128" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5852,7 +5864,7 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="H129" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5878,7 +5890,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H130" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5904,7 +5916,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="H131" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5930,7 +5942,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H132" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5956,7 +5968,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H133" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5982,7 +5994,7 @@
         <v>0.3378378378378379</v>
       </c>
       <c r="H134" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6008,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6034,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6060,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6086,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6112,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6138,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6164,7 +6176,7 @@
         <v>0.6794871794871795</v>
       </c>
       <c r="H141" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6190,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6216,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6242,7 +6254,7 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="H144" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6268,7 +6280,7 @@
         <v>0.675</v>
       </c>
       <c r="H145" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6294,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6320,7 +6332,7 @@
         <v>0.6962025316455697</v>
       </c>
       <c r="H147" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6346,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6372,7 +6384,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H149" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6398,7 +6410,7 @@
         <v>0.6533333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6424,7 +6436,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H151" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6450,7 +6462,7 @@
         <v>0.3424657534246576</v>
       </c>
       <c r="H152" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6476,7 +6488,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6502,7 +6514,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H154" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6528,7 +6540,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H155" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6554,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6580,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6606,7 +6618,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H158" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6632,7 +6644,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H159" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6658,7 +6670,7 @@
         <v>0.7101449275362319</v>
       </c>
       <c r="H160" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6684,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6710,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6736,7 +6748,7 @@
         <v>0.7</v>
       </c>
       <c r="H163" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6762,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6788,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6814,7 +6826,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H166" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6840,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6866,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6892,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6918,7 +6930,7 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="H170" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6944,7 +6956,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H171" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6970,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6996,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7022,7 +7034,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H174" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7048,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7074,7 +7086,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H176" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7100,7 +7112,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H177" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7126,7 +7138,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H178" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7152,7 +7164,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H179" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7178,7 +7190,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H180" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7204,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7230,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7256,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7282,7 +7294,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H184" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7308,7 +7320,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H185" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7334,7 +7346,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H186" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7360,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7386,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7412,7 +7424,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H189" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7438,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7464,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7490,7 +7502,7 @@
         <v>0.657142857142857</v>
       </c>
       <c r="H192" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7516,7 +7528,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H193" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7542,7 +7554,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H194" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7568,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7594,7 +7606,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H196" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7620,7 +7632,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H197" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7646,7 +7658,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H198" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7672,7 +7684,7 @@
         <v>0.676056338028169</v>
       </c>
       <c r="H199" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7698,7 +7710,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H200" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7724,7 +7736,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H201" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7750,7 +7762,7 @@
         <v>0.3283582089552239</v>
       </c>
       <c r="H202" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7776,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7802,7 +7814,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H204" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7828,7 +7840,7 @@
         <v>0.6515151515151516</v>
       </c>
       <c r="H205" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7854,7 +7866,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7880,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7906,7 +7918,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7932,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7958,7 +7970,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7984,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8010,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8036,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8062,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8088,7 +8100,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H215" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8114,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8140,7 +8152,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8166,7 +8178,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8192,7 +8204,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8218,7 +8230,7 @@
         <v>0.596774193548387</v>
       </c>
       <c r="H220" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8244,7 +8256,7 @@
         <v>0.5873015873015873</v>
       </c>
       <c r="H221" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8270,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8296,7 +8308,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8322,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8348,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8374,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8400,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8426,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8452,7 +8464,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H229" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8478,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8504,7 +8516,7 @@
         <v>0.6444444444444444</v>
       </c>
       <c r="H231" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8530,7 +8542,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H232" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8556,7 +8568,7 @@
         <v>0.4</v>
       </c>
       <c r="H233" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8582,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8608,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8634,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8660,7 +8672,7 @@
         <v>0.6170212765957447</v>
       </c>
       <c r="H237" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8686,7 +8698,7 @@
         <v>0.4042553191489361</v>
       </c>
       <c r="H238" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8712,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8738,7 +8750,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H240" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8764,7 +8776,7 @@
         <v>0.2575757575757576</v>
       </c>
       <c r="H241" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8790,7 +8802,7 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="H242" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8816,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8842,7 +8854,7 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="H244" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8868,7 +8880,7 @@
         <v>0.25</v>
       </c>
       <c r="H245" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8894,7 +8906,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="H246" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8920,7 +8932,7 @@
         <v>0.5970149253731343</v>
       </c>
       <c r="H247" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8946,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8972,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8998,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9024,7 +9036,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H251" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9050,7 +9062,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H252" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9076,7 +9088,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H253" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9102,7 +9114,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H254" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9128,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9154,7 +9166,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H256" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9180,7 +9192,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H257" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9206,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9232,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9258,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9284,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9310,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9336,7 +9348,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H263" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9362,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9388,7 +9400,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H265" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9414,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9440,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9466,7 +9478,7 @@
         <v>0.6933333333333335</v>
       </c>
       <c r="H268" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9492,7 +9504,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H269" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9518,7 +9530,7 @@
         <v>0.6438356164383562</v>
       </c>
       <c r="H270" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9544,7 +9556,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H271" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9570,7 +9582,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H272" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9596,7 +9608,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H273" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9622,7 +9634,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H274" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9648,7 +9660,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9674,7 +9686,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9700,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9726,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9752,7 +9764,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9778,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9804,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9830,7 +9842,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9856,7 +9868,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9882,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9908,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9934,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9960,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9986,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10012,7 +10024,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10038,7 +10050,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H290" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10064,7 +10076,7 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="H291" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10090,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10116,7 +10128,7 @@
         <v>0.3278688524590164</v>
       </c>
       <c r="H293" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10142,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10168,7 +10180,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H295" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10194,7 +10206,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H296" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10220,7 +10232,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H297" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10246,7 +10258,7 @@
         <v>0.6</v>
       </c>
       <c r="H298" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10272,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10298,7 +10310,7 @@
         <v>0.671875</v>
       </c>
       <c r="H300" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10324,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10350,7 +10362,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H302" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10376,7 +10388,7 @@
         <v>0.6769230769230767</v>
       </c>
       <c r="H303" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10402,7 +10414,7 @@
         <v>0.65625</v>
       </c>
       <c r="H304" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10428,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10454,7 +10466,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H306" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10480,7 +10492,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H307" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10506,7 +10518,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H308" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10532,7 +10544,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H309" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10558,7 +10570,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H310" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10584,7 +10596,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H311" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10610,7 +10622,7 @@
         <v>0.323076923076923</v>
       </c>
       <c r="H312" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10636,7 +10648,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H313" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10662,7 +10674,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H314" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10688,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10714,7 +10726,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H316" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10740,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10766,7 +10778,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H318" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10792,7 +10804,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H319" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10818,7 +10830,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H320" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10844,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10870,7 +10882,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H322" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10896,7 +10908,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H323" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10922,7 +10934,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H324" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10948,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10974,7 +10986,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H326" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11000,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11026,7 +11038,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H328" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11052,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11078,7 +11090,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H330" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11104,7 +11116,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H331" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11130,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11156,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11182,7 +11194,7 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="H334" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11208,7 +11220,7 @@
         <v>0.3108108108108108</v>
       </c>
       <c r="H335" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11234,7 +11246,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H336" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11260,7 +11272,7 @@
         <v>0.3013698630136986</v>
       </c>
       <c r="H337" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11286,7 +11298,7 @@
         <v>0.4084507042253522</v>
       </c>
       <c r="H338" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11312,7 +11324,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11338,7 +11350,7 @@
         <v>0.3098591549295775</v>
       </c>
       <c r="H340" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11364,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11390,7 +11402,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H342" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11416,7 +11428,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H343" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11442,7 +11454,7 @@
         <v>0.6142857142857143</v>
       </c>
       <c r="H344" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11468,7 +11480,7 @@
         <v>0.2714285714285714</v>
       </c>
       <c r="H345" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11494,7 +11506,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11520,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11546,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11572,7 +11584,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11598,7 +11610,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11624,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11650,7 +11662,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11676,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11702,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11728,7 +11740,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H355" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11754,7 +11766,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H356" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11780,7 +11792,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11806,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11832,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11858,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11884,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11910,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11936,7 +11948,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H363" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11962,7 +11974,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H364" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11988,7 +12000,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H365" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12014,7 +12026,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H366" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12040,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12066,7 +12078,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H368" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12092,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12118,7 +12130,7 @@
         <v>0.4749999999999999</v>
       </c>
       <c r="H370" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12144,7 +12156,7 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="H371" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12170,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12196,7 +12208,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H373" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12222,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12248,7 +12260,7 @@
         <v>0.3050847457627119</v>
       </c>
       <c r="H375" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12274,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12300,7 +12312,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H377" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12326,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12352,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12378,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12404,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12430,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12456,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12482,7 +12494,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="H384" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12508,7 +12520,7 @@
         <v>0.4324324324324324</v>
       </c>
       <c r="H385" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12534,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12560,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12586,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12612,7 +12624,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H389" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12638,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12664,7 +12676,7 @@
         <v>0.6065573770491803</v>
       </c>
       <c r="H391" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12690,7 +12702,7 @@
         <v>0.2698412698412698</v>
       </c>
       <c r="H392" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12716,7 +12728,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12742,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12768,7 +12780,7 @@
         <v>0.6949152542372882</v>
       </c>
       <c r="H395" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12794,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12820,7 +12832,7 @@
         <v>0.6935483870967742</v>
       </c>
       <c r="H397" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12846,7 +12858,7 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="H398" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12872,7 +12884,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H399" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12898,7 +12910,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H400" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12924,7 +12936,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H401" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12950,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12976,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13002,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13028,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13054,7 +13066,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13080,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13106,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13132,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13158,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13184,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13210,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13236,7 +13248,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13262,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13288,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13314,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13340,7 +13352,7 @@
         <v>0.296875</v>
       </c>
       <c r="H417" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13366,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13392,7 +13404,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H419" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13418,7 +13430,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H420" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13444,7 +13456,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H421" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13470,7 +13482,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H422" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13496,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13522,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13548,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13574,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13600,7 +13612,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H427" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13626,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13652,7 +13664,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H429" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13678,7 +13690,7 @@
         <v>0.6349206349206349</v>
       </c>
       <c r="H430" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13704,7 +13716,7 @@
         <v>0.296875</v>
       </c>
       <c r="H431" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13730,7 +13742,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H432" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13756,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13782,7 +13794,7 @@
         <v>0.6376811594202898</v>
       </c>
       <c r="H434" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13808,7 +13820,7 @@
         <v>0.3432835820895522</v>
       </c>
       <c r="H435" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13834,7 +13846,7 @@
         <v>0.7164179104477613</v>
       </c>
       <c r="H436" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13860,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13886,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13912,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13938,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13964,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13990,7 +14002,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14016,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14042,7 +14054,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14068,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14094,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14120,7 +14132,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H447" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14146,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14172,7 +14184,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H449" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14198,7 +14210,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14224,7 +14236,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14250,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14276,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14302,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14328,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14354,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14380,7 +14392,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H457" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14406,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14432,7 +14444,7 @@
         <v>0.640625</v>
       </c>
       <c r="H459" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14458,7 +14470,7 @@
         <v>0.3125</v>
       </c>
       <c r="H460" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14484,7 +14496,7 @@
         <v>0.625</v>
       </c>
       <c r="H461" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14510,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14536,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14562,7 +14574,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H464" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14588,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14614,7 +14626,7 @@
         <v>0.65625</v>
       </c>
       <c r="H466" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14640,7 +14652,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H467" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14666,7 +14678,7 @@
         <v>0.6290322580645161</v>
       </c>
       <c r="H468" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14692,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14718,7 +14730,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H470" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14744,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14770,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14796,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14822,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14848,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14874,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14900,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14926,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14952,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14978,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15004,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15030,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15056,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15082,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15108,7 +15120,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15134,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15160,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15186,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15212,7 +15224,7 @@
         <v>0.7213114754098361</v>
       </c>
       <c r="H489" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15238,7 +15250,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H490" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15264,7 +15276,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15290,7 +15302,7 @@
         <v>0.7258064516129032</v>
       </c>
       <c r="H492" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15316,7 +15328,7 @@
         <v>0.7049180327868854</v>
       </c>
       <c r="H493" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15342,7 +15354,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15368,7 +15380,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15394,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15420,7 +15432,7 @@
         <v>0.7</v>
       </c>
       <c r="H497" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15446,7 +15458,7 @@
         <v>0.7</v>
       </c>
       <c r="H498" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15472,7 +15484,7 @@
         <v>0.35</v>
       </c>
       <c r="H499" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15498,7 +15510,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="H500" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15524,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15550,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15576,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15602,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15628,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15654,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15680,7 +15692,7 @@
         <v>0.3558999999999999</v>
       </c>
       <c r="H507" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15706,7 +15718,7 @@
         <v>0.6393</v>
       </c>
       <c r="H508" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15732,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15758,7 +15770,7 @@
         <v>0.525</v>
       </c>
       <c r="H510" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15784,7 +15796,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15810,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15836,7 +15848,7 @@
         <v>0.5349</v>
       </c>
       <c r="H513" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15862,7 +15874,7 @@
         <v>0.5227000000000001</v>
       </c>
       <c r="H514" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15888,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15914,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15940,7 +15952,7 @@
         <v>0.6949</v>
       </c>
       <c r="H517" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15966,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15992,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16018,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16044,7 +16056,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16070,7 +16082,7 @@
         <v>0.5238</v>
       </c>
       <c r="H522" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16096,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16122,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16148,7 +16160,7 @@
         <v>0.6934999999999999</v>
       </c>
       <c r="H525" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16174,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16200,7 +16212,7 @@
         <v>0.6562</v>
       </c>
       <c r="H527" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16226,7 +16238,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16252,7 +16264,7 @@
         <v>0.3548000000000001</v>
       </c>
       <c r="H529" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16278,7 +16290,7 @@
         <v>0.65</v>
       </c>
       <c r="H530" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16304,7 +16316,7 @@
         <v>0.6721</v>
       </c>
       <c r="H531" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16330,7 +16342,7 @@
         <v>0.6721</v>
       </c>
       <c r="H532" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16356,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16382,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16408,7 +16420,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16434,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16460,7 +16472,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16486,7 +16498,7 @@
         <v>0.5366</v>
       </c>
       <c r="H538" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16512,7 +16524,7 @@
         <v>0.5122</v>
       </c>
       <c r="H539" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16538,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16564,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16590,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16616,7 +16628,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16642,7 +16654,7 @@
         <v>0.5263</v>
       </c>
       <c r="H544" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16668,7 +16680,7 @@
         <v>0.5263</v>
       </c>
       <c r="H545" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16694,7 +16706,7 @@
         <v>0.5135</v>
       </c>
       <c r="H546" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16720,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16746,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16772,7 +16784,7 @@
         <v>0.4872</v>
       </c>
       <c r="H549" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16798,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16824,7 +16836,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16850,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16876,7 +16888,7 @@
         <v>0.5122</v>
       </c>
       <c r="H553" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16902,7 +16914,7 @@
         <v>0.5238</v>
       </c>
       <c r="H554" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16928,7 +16940,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16954,7 +16966,7 @@
         <v>0.5349</v>
       </c>
       <c r="H556" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16980,7 +16992,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H557" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17006,7 +17018,7 @@
         <v>0.5238</v>
       </c>
       <c r="H558" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17032,7 +17044,7 @@
         <v>0.5122</v>
       </c>
       <c r="H559" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17058,7 +17070,7 @@
         <v>0.4878</v>
       </c>
       <c r="H560" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17084,7 +17096,7 @@
         <v>0.4878</v>
       </c>
       <c r="H561" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17110,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17136,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17146,7 +17158,13 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
         <v>0</v>
       </c>
       <c r="F564">
@@ -17156,7 +17174,53 @@
         <v>0.4872</v>
       </c>
       <c r="H564" t="s">
-        <v>708</v>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0.3455</v>
+      </c>
+      <c r="G565">
+        <v>0.6545000000000001</v>
+      </c>
+      <c r="H565" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>0.3393</v>
+      </c>
+      <c r="G566">
+        <v>0.6607</v>
+      </c>
+      <c r="H566" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSM.xlsx
+++ b/firebase_data_from_spyEnsembleVSM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="720">
   <si>
     <t>date</t>
   </si>
@@ -1732,6 +1732,24 @@
     <t>2025-08-29</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2153,6 +2171,9 @@
   </si>
   <si>
     <t>66.07</t>
+  </si>
+  <si>
+    <t>56.10</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2562,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2588,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2614,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2640,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2666,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2692,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2718,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2744,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2770,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2796,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2822,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2848,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2874,7 +2895,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2900,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2926,7 +2947,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2952,7 +2973,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2978,7 +2999,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3004,7 +3025,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3030,7 +3051,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3056,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3082,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3108,7 +3129,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3134,7 +3155,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3160,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3186,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3212,7 +3233,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3238,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3264,7 +3285,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3290,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3316,7 +3337,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3342,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3368,7 +3389,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3394,7 +3415,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3420,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3446,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3472,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3498,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3524,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3550,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3576,7 +3597,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3602,7 +3623,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3628,7 +3649,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3654,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3680,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3706,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3732,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3758,7 +3779,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3784,7 +3805,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3810,7 +3831,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3836,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3862,7 +3883,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3888,7 +3909,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3914,7 +3935,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3940,7 +3961,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3966,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3992,7 +4013,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4018,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4044,7 +4065,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4070,7 +4091,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H60" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4096,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4122,7 +4143,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4148,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4174,7 +4195,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H64" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4200,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4226,7 +4247,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4252,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4278,7 +4299,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4304,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4330,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4356,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4382,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4408,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4434,7 +4455,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4460,7 +4481,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4486,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4512,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4538,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4564,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4590,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4616,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4642,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4668,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4694,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4720,7 +4741,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H85" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4746,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4772,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4798,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4824,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4850,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4876,7 +4897,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4902,7 +4923,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4928,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4954,7 +4975,7 @@
         <v>0.14</v>
       </c>
       <c r="H94" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4980,7 +5001,7 @@
         <v>0.3877551020408163</v>
       </c>
       <c r="H95" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5006,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5032,7 +5053,7 @@
         <v>0.6274509803921569</v>
       </c>
       <c r="H97" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5058,7 +5079,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H98" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5084,7 +5105,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H99" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5110,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5136,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5162,7 +5183,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H102" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5188,7 +5209,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5214,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5240,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5266,7 +5287,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H106" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5292,7 +5313,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H107" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5318,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5344,7 +5365,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H109" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5370,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5396,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5422,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5448,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5474,7 +5495,7 @@
         <v>0.6825396825396826</v>
       </c>
       <c r="H114" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5500,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5526,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5552,7 +5573,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H117" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5578,7 +5599,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H118" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5604,7 +5625,7 @@
         <v>0.6617647058823529</v>
       </c>
       <c r="H119" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5630,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5656,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5682,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5708,7 +5729,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H123" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5734,7 +5755,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H124" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5760,7 +5781,7 @@
         <v>0.3066666666666667</v>
       </c>
       <c r="H125" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5786,7 +5807,7 @@
         <v>0.32</v>
       </c>
       <c r="H126" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5812,7 +5833,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="H127" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5838,7 +5859,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H128" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5864,7 +5885,7 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="H129" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5890,7 +5911,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H130" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5916,7 +5937,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="H131" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5942,7 +5963,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H132" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5968,7 +5989,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H133" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5994,7 +6015,7 @@
         <v>0.3378378378378379</v>
       </c>
       <c r="H134" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6020,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6046,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6072,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6098,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6124,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6150,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6176,7 +6197,7 @@
         <v>0.6794871794871795</v>
       </c>
       <c r="H141" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6202,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6228,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6254,7 +6275,7 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="H144" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6280,7 +6301,7 @@
         <v>0.675</v>
       </c>
       <c r="H145" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6306,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6332,7 +6353,7 @@
         <v>0.6962025316455697</v>
       </c>
       <c r="H147" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6358,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6384,7 +6405,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H149" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6410,7 +6431,7 @@
         <v>0.6533333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6436,7 +6457,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H151" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6462,7 +6483,7 @@
         <v>0.3424657534246576</v>
       </c>
       <c r="H152" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6488,7 +6509,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6514,7 +6535,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H154" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6540,7 +6561,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H155" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6566,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6592,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6618,7 +6639,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H158" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6644,7 +6665,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H159" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6670,7 +6691,7 @@
         <v>0.7101449275362319</v>
       </c>
       <c r="H160" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6696,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6722,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6748,7 +6769,7 @@
         <v>0.7</v>
       </c>
       <c r="H163" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6774,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6800,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6826,7 +6847,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H166" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6852,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6878,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6904,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6930,7 +6951,7 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="H170" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6956,7 +6977,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H171" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6982,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7008,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7034,7 +7055,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H174" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7060,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7086,7 +7107,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H176" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7112,7 +7133,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H177" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7138,7 +7159,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H178" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7164,7 +7185,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H179" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7190,7 +7211,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H180" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7216,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7242,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7268,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7294,7 +7315,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H184" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7320,7 +7341,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H185" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7346,7 +7367,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H186" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7372,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7398,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7424,7 +7445,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H189" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7450,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7476,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7502,7 +7523,7 @@
         <v>0.657142857142857</v>
       </c>
       <c r="H192" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7528,7 +7549,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H193" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7554,7 +7575,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H194" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7580,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7606,7 +7627,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H196" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7632,7 +7653,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H197" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7658,7 +7679,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H198" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7684,7 +7705,7 @@
         <v>0.676056338028169</v>
       </c>
       <c r="H199" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7710,7 +7731,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H200" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7736,7 +7757,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H201" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7762,7 +7783,7 @@
         <v>0.3283582089552239</v>
       </c>
       <c r="H202" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7788,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7814,7 +7835,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H204" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7840,7 +7861,7 @@
         <v>0.6515151515151516</v>
       </c>
       <c r="H205" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7866,7 +7887,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7892,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7918,7 +7939,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7944,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7970,7 +7991,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7996,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8022,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8048,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8074,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8100,7 +8121,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H215" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8126,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8152,7 +8173,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8178,7 +8199,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8204,7 +8225,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8230,7 +8251,7 @@
         <v>0.596774193548387</v>
       </c>
       <c r="H220" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8256,7 +8277,7 @@
         <v>0.5873015873015873</v>
       </c>
       <c r="H221" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8282,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8308,7 +8329,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8334,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8360,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8386,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8412,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8438,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8464,7 +8485,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H229" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8490,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8516,7 +8537,7 @@
         <v>0.6444444444444444</v>
       </c>
       <c r="H231" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8542,7 +8563,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H232" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8568,7 +8589,7 @@
         <v>0.4</v>
       </c>
       <c r="H233" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8594,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8620,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8646,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8672,7 +8693,7 @@
         <v>0.6170212765957447</v>
       </c>
       <c r="H237" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8698,7 +8719,7 @@
         <v>0.4042553191489361</v>
       </c>
       <c r="H238" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8724,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8750,7 +8771,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H240" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8776,7 +8797,7 @@
         <v>0.2575757575757576</v>
       </c>
       <c r="H241" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8802,7 +8823,7 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="H242" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8828,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8854,7 +8875,7 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="H244" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8880,7 +8901,7 @@
         <v>0.25</v>
       </c>
       <c r="H245" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8906,7 +8927,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="H246" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8932,7 +8953,7 @@
         <v>0.5970149253731343</v>
       </c>
       <c r="H247" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8958,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8984,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9010,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9036,7 +9057,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H251" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9062,7 +9083,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H252" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9088,7 +9109,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H253" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9114,7 +9135,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H254" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9140,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9166,7 +9187,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H256" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9192,7 +9213,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H257" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9218,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9244,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9270,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9296,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9322,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9348,7 +9369,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H263" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9374,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9400,7 +9421,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H265" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9426,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9452,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9478,7 +9499,7 @@
         <v>0.6933333333333335</v>
       </c>
       <c r="H268" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9504,7 +9525,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H269" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9530,7 +9551,7 @@
         <v>0.6438356164383562</v>
       </c>
       <c r="H270" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9556,7 +9577,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H271" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9582,7 +9603,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H272" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9608,7 +9629,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H273" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9634,7 +9655,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H274" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9660,7 +9681,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9686,7 +9707,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9712,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9738,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9764,7 +9785,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9790,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9816,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9842,7 +9863,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9868,7 +9889,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9894,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9920,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9946,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9972,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9998,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10024,7 +10045,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10050,7 +10071,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H290" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10076,7 +10097,7 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="H291" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10102,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10128,7 +10149,7 @@
         <v>0.3278688524590164</v>
       </c>
       <c r="H293" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10154,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10180,7 +10201,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H295" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10206,7 +10227,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H296" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10232,7 +10253,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H297" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10258,7 +10279,7 @@
         <v>0.6</v>
       </c>
       <c r="H298" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10284,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10310,7 +10331,7 @@
         <v>0.671875</v>
       </c>
       <c r="H300" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10336,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10362,7 +10383,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H302" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10388,7 +10409,7 @@
         <v>0.6769230769230767</v>
       </c>
       <c r="H303" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10414,7 +10435,7 @@
         <v>0.65625</v>
       </c>
       <c r="H304" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10440,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10466,7 +10487,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H306" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10492,7 +10513,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H307" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10518,7 +10539,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H308" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10544,7 +10565,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H309" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10570,7 +10591,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H310" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10596,7 +10617,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H311" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10622,7 +10643,7 @@
         <v>0.323076923076923</v>
       </c>
       <c r="H312" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10648,7 +10669,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H313" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10674,7 +10695,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H314" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10700,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10726,7 +10747,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H316" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10752,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10778,7 +10799,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H318" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10804,7 +10825,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H319" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10830,7 +10851,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H320" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10856,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10882,7 +10903,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H322" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10908,7 +10929,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H323" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10934,7 +10955,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H324" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10960,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10986,7 +11007,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H326" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11012,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11038,7 +11059,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H328" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11064,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11090,7 +11111,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H330" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11116,7 +11137,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H331" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11142,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11168,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11194,7 +11215,7 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="H334" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11220,7 +11241,7 @@
         <v>0.3108108108108108</v>
       </c>
       <c r="H335" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11246,7 +11267,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H336" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11272,7 +11293,7 @@
         <v>0.3013698630136986</v>
       </c>
       <c r="H337" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11298,7 +11319,7 @@
         <v>0.4084507042253522</v>
       </c>
       <c r="H338" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11324,7 +11345,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11350,7 +11371,7 @@
         <v>0.3098591549295775</v>
       </c>
       <c r="H340" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11376,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11402,7 +11423,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H342" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11428,7 +11449,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H343" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11454,7 +11475,7 @@
         <v>0.6142857142857143</v>
       </c>
       <c r="H344" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11480,7 +11501,7 @@
         <v>0.2714285714285714</v>
       </c>
       <c r="H345" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11506,7 +11527,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11532,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11558,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11584,7 +11605,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11610,7 +11631,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11636,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11662,7 +11683,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11688,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11714,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11740,7 +11761,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H355" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11766,7 +11787,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H356" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11792,7 +11813,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11818,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11844,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11870,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11896,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11922,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11948,7 +11969,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H363" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11974,7 +11995,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H364" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12000,7 +12021,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H365" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12026,7 +12047,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H366" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12052,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12078,7 +12099,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H368" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12104,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12130,7 +12151,7 @@
         <v>0.4749999999999999</v>
       </c>
       <c r="H370" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12156,7 +12177,7 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="H371" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12182,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12208,7 +12229,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H373" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12234,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12260,7 +12281,7 @@
         <v>0.3050847457627119</v>
       </c>
       <c r="H375" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12286,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12312,7 +12333,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H377" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12338,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12364,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12390,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12416,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12442,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12468,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12494,7 +12515,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="H384" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12520,7 +12541,7 @@
         <v>0.4324324324324324</v>
       </c>
       <c r="H385" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12546,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12572,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12598,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12624,7 +12645,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H389" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12650,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12676,7 +12697,7 @@
         <v>0.6065573770491803</v>
       </c>
       <c r="H391" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12702,7 +12723,7 @@
         <v>0.2698412698412698</v>
       </c>
       <c r="H392" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12728,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12754,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12780,7 +12801,7 @@
         <v>0.6949152542372882</v>
       </c>
       <c r="H395" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12806,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12832,7 +12853,7 @@
         <v>0.6935483870967742</v>
       </c>
       <c r="H397" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12858,7 +12879,7 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="H398" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12884,7 +12905,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H399" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12910,7 +12931,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H400" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12936,7 +12957,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H401" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12962,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12988,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13014,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13040,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13066,7 +13087,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13092,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13118,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13144,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13170,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13196,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13222,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13248,7 +13269,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13274,7 +13295,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13300,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13326,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13352,7 +13373,7 @@
         <v>0.296875</v>
       </c>
       <c r="H417" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13378,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13404,7 +13425,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H419" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13430,7 +13451,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H420" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13456,7 +13477,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H421" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13482,7 +13503,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H422" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13508,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13534,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13560,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13586,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13612,7 +13633,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H427" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13638,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13664,7 +13685,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H429" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13690,7 +13711,7 @@
         <v>0.6349206349206349</v>
       </c>
       <c r="H430" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13716,7 +13737,7 @@
         <v>0.296875</v>
       </c>
       <c r="H431" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13742,7 +13763,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H432" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13768,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13794,7 +13815,7 @@
         <v>0.6376811594202898</v>
       </c>
       <c r="H434" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13820,7 +13841,7 @@
         <v>0.3432835820895522</v>
       </c>
       <c r="H435" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13846,7 +13867,7 @@
         <v>0.7164179104477613</v>
       </c>
       <c r="H436" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13872,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13898,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13924,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13950,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13976,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14002,7 +14023,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14028,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14054,7 +14075,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14080,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14106,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14132,7 +14153,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H447" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14158,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14184,7 +14205,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H449" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14210,7 +14231,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14236,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14262,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14288,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14314,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14340,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14366,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14392,7 +14413,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H457" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14418,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14444,7 +14465,7 @@
         <v>0.640625</v>
       </c>
       <c r="H459" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14470,7 +14491,7 @@
         <v>0.3125</v>
       </c>
       <c r="H460" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14496,7 +14517,7 @@
         <v>0.625</v>
       </c>
       <c r="H461" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14522,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14548,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14574,7 +14595,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H464" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14600,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14626,7 +14647,7 @@
         <v>0.65625</v>
       </c>
       <c r="H466" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14652,7 +14673,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H467" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14678,7 +14699,7 @@
         <v>0.6290322580645161</v>
       </c>
       <c r="H468" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14704,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14730,7 +14751,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H470" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14756,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14782,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14808,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14834,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14860,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14886,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14912,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14938,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14964,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14990,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15016,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15042,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15068,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15094,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15120,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15146,7 +15167,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15172,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15198,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15224,7 +15245,7 @@
         <v>0.7213114754098361</v>
       </c>
       <c r="H489" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15250,7 +15271,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H490" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15276,7 +15297,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15302,7 +15323,7 @@
         <v>0.7258064516129032</v>
       </c>
       <c r="H492" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15328,7 +15349,7 @@
         <v>0.7049180327868854</v>
       </c>
       <c r="H493" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15354,7 +15375,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15380,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15406,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15432,7 +15453,7 @@
         <v>0.7</v>
       </c>
       <c r="H497" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15458,7 +15479,7 @@
         <v>0.7</v>
       </c>
       <c r="H498" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15484,7 +15505,7 @@
         <v>0.35</v>
       </c>
       <c r="H499" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15510,7 +15531,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="H500" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15536,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15562,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15588,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15614,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15640,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15666,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15692,7 +15713,7 @@
         <v>0.3558999999999999</v>
       </c>
       <c r="H507" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15718,7 +15739,7 @@
         <v>0.6393</v>
       </c>
       <c r="H508" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15744,7 +15765,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15770,7 +15791,7 @@
         <v>0.525</v>
       </c>
       <c r="H510" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15796,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15822,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15848,7 +15869,7 @@
         <v>0.5349</v>
       </c>
       <c r="H513" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15874,7 +15895,7 @@
         <v>0.5227000000000001</v>
       </c>
       <c r="H514" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15900,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15926,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15952,7 +15973,7 @@
         <v>0.6949</v>
       </c>
       <c r="H517" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15978,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16004,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16030,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16056,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16082,7 +16103,7 @@
         <v>0.5238</v>
       </c>
       <c r="H522" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16108,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16134,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16160,7 +16181,7 @@
         <v>0.6934999999999999</v>
       </c>
       <c r="H525" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16186,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16212,7 +16233,7 @@
         <v>0.6562</v>
       </c>
       <c r="H527" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16238,7 +16259,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16264,7 +16285,7 @@
         <v>0.3548000000000001</v>
       </c>
       <c r="H529" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16290,7 +16311,7 @@
         <v>0.65</v>
       </c>
       <c r="H530" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16316,7 +16337,7 @@
         <v>0.6721</v>
       </c>
       <c r="H531" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16342,7 +16363,7 @@
         <v>0.6721</v>
       </c>
       <c r="H532" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16368,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16394,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16420,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16446,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16472,7 +16493,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16498,7 +16519,7 @@
         <v>0.5366</v>
       </c>
       <c r="H538" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16524,7 +16545,7 @@
         <v>0.5122</v>
       </c>
       <c r="H539" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16550,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16576,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16602,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16628,7 +16649,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16654,7 +16675,7 @@
         <v>0.5263</v>
       </c>
       <c r="H544" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16680,7 +16701,7 @@
         <v>0.5263</v>
       </c>
       <c r="H545" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16706,7 +16727,7 @@
         <v>0.5135</v>
       </c>
       <c r="H546" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16732,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16758,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16784,7 +16805,7 @@
         <v>0.4872</v>
       </c>
       <c r="H549" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16810,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16836,7 +16857,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16862,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16888,7 +16909,7 @@
         <v>0.5122</v>
       </c>
       <c r="H553" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16914,7 +16935,7 @@
         <v>0.5238</v>
       </c>
       <c r="H554" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16940,7 +16961,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16966,7 +16987,7 @@
         <v>0.5349</v>
       </c>
       <c r="H556" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16992,7 +17013,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H557" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17018,7 +17039,7 @@
         <v>0.5238</v>
       </c>
       <c r="H558" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17044,7 +17065,7 @@
         <v>0.5122</v>
       </c>
       <c r="H559" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17070,7 +17091,7 @@
         <v>0.4878</v>
       </c>
       <c r="H560" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17096,7 +17117,7 @@
         <v>0.4878</v>
       </c>
       <c r="H561" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17122,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17148,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17174,7 +17195,7 @@
         <v>0.4872</v>
       </c>
       <c r="H564" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17200,7 +17221,7 @@
         <v>0.6545000000000001</v>
       </c>
       <c r="H565" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17210,8 +17231,14 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>1</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
       </c>
       <c r="F566">
         <v>0.3393</v>
@@ -17220,7 +17247,157 @@
         <v>0.6607</v>
       </c>
       <c r="H566" t="s">
-        <v>712</v>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0.5263</v>
+      </c>
+      <c r="G567">
+        <v>0.4737000000000001</v>
+      </c>
+      <c r="H567" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G572">
+        <v>0.439</v>
+      </c>
+      <c r="H572" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSM.xlsx
+++ b/firebase_data_from_spyEnsembleVSM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="722">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2531,7 +2537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2583,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2609,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2661,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2687,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2739,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2765,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2791,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2817,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2843,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2869,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2895,7 +2901,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2921,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2947,7 +2953,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2973,7 +2979,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2999,7 +3005,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3025,7 +3031,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3051,7 +3057,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3077,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3103,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3129,7 +3135,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3155,7 +3161,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3181,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3207,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3233,7 +3239,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3285,7 +3291,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3311,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3337,7 +3343,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3363,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3389,7 +3395,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3415,7 +3421,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3441,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3467,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3493,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3519,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3571,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3597,7 +3603,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3623,7 +3629,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3649,7 +3655,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3675,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3701,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3753,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3779,7 +3785,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3805,7 +3811,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3831,7 +3837,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3857,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3883,7 +3889,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3909,7 +3915,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3935,7 +3941,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3961,7 +3967,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3987,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4013,7 +4019,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4065,7 +4071,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4091,7 +4097,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H60" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4117,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4143,7 +4149,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4169,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4195,7 +4201,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H64" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4221,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4247,7 +4253,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4273,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4299,7 +4305,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4325,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4351,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4377,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4403,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4429,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4455,7 +4461,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4481,7 +4487,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4507,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4533,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4559,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4585,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4611,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4637,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4663,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4689,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4715,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4741,7 +4747,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H85" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4767,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4793,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4819,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4845,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4871,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4897,7 +4903,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4923,7 +4929,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4949,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4975,7 +4981,7 @@
         <v>0.14</v>
       </c>
       <c r="H94" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5001,7 +5007,7 @@
         <v>0.3877551020408163</v>
       </c>
       <c r="H95" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5027,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5053,7 +5059,7 @@
         <v>0.6274509803921569</v>
       </c>
       <c r="H97" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5079,7 +5085,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H98" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5105,7 +5111,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H99" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5131,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5157,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5183,7 +5189,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H102" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5209,7 +5215,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5235,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5261,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5287,7 +5293,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H106" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5313,7 +5319,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H107" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5339,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5365,7 +5371,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H109" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5391,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5417,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5443,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5469,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5495,7 +5501,7 @@
         <v>0.6825396825396826</v>
       </c>
       <c r="H114" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5521,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5547,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5573,7 +5579,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H117" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5599,7 +5605,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H118" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5625,7 +5631,7 @@
         <v>0.6617647058823529</v>
       </c>
       <c r="H119" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5651,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5677,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5703,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5729,7 +5735,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H123" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5755,7 +5761,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H124" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5781,7 +5787,7 @@
         <v>0.3066666666666667</v>
       </c>
       <c r="H125" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5807,7 +5813,7 @@
         <v>0.32</v>
       </c>
       <c r="H126" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5833,7 +5839,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="H127" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5859,7 +5865,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H128" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5885,7 +5891,7 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="H129" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5911,7 +5917,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H130" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5937,7 +5943,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="H131" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5963,7 +5969,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H132" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5989,7 +5995,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H133" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6015,7 +6021,7 @@
         <v>0.3378378378378379</v>
       </c>
       <c r="H134" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6041,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6067,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6093,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6119,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6145,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6171,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6197,7 +6203,7 @@
         <v>0.6794871794871795</v>
       </c>
       <c r="H141" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6223,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6249,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6275,7 +6281,7 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="H144" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6301,7 +6307,7 @@
         <v>0.675</v>
       </c>
       <c r="H145" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6327,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6353,7 +6359,7 @@
         <v>0.6962025316455697</v>
       </c>
       <c r="H147" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6379,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6405,7 +6411,7 @@
         <v>0.3552631578947368</v>
       </c>
       <c r="H149" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6431,7 +6437,7 @@
         <v>0.6533333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6457,7 +6463,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H151" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6483,7 +6489,7 @@
         <v>0.3424657534246576</v>
       </c>
       <c r="H152" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6509,7 +6515,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6535,7 +6541,7 @@
         <v>0.6849315068493153</v>
       </c>
       <c r="H154" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6561,7 +6567,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H155" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6587,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6613,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6639,7 +6645,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H158" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6665,7 +6671,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H159" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6691,7 +6697,7 @@
         <v>0.7101449275362319</v>
       </c>
       <c r="H160" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6717,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6743,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6769,7 +6775,7 @@
         <v>0.7</v>
       </c>
       <c r="H163" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6795,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6821,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6847,7 +6853,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H166" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6873,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6899,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6925,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6951,7 +6957,7 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="H170" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6977,7 +6983,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H171" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7003,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7029,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7055,7 +7061,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H174" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7081,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7107,7 +7113,7 @@
         <v>0.6527777777777779</v>
       </c>
       <c r="H176" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7133,7 +7139,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H177" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7159,7 +7165,7 @@
         <v>0.6712328767123288</v>
       </c>
       <c r="H178" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7185,7 +7191,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H179" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7211,7 +7217,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H180" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7237,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7263,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7289,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7315,7 +7321,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H184" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7341,7 +7347,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H185" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7367,7 +7373,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H186" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7393,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7419,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7445,7 +7451,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H189" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7471,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7497,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7523,7 +7529,7 @@
         <v>0.657142857142857</v>
       </c>
       <c r="H192" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7549,7 +7555,7 @@
         <v>0.6714285714285715</v>
       </c>
       <c r="H193" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7575,7 +7581,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H194" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7601,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7627,7 +7633,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H196" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7653,7 +7659,7 @@
         <v>0.6478873239436621</v>
       </c>
       <c r="H197" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7679,7 +7685,7 @@
         <v>0.6619718309859155</v>
       </c>
       <c r="H198" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7705,7 +7711,7 @@
         <v>0.676056338028169</v>
       </c>
       <c r="H199" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7731,7 +7737,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H200" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7757,7 +7763,7 @@
         <v>0.6567164179104478</v>
       </c>
       <c r="H201" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7783,7 +7789,7 @@
         <v>0.3283582089552239</v>
       </c>
       <c r="H202" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7809,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7835,7 +7841,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H204" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7861,7 +7867,7 @@
         <v>0.6515151515151516</v>
       </c>
       <c r="H205" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7887,7 +7893,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7913,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7939,7 +7945,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7965,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7991,7 +7997,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8017,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8043,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8069,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8095,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8121,7 +8127,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H215" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8147,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8173,7 +8179,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8199,7 +8205,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8225,7 +8231,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8251,7 +8257,7 @@
         <v>0.596774193548387</v>
       </c>
       <c r="H220" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8277,7 +8283,7 @@
         <v>0.5873015873015873</v>
       </c>
       <c r="H221" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8303,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8329,7 +8335,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8355,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8381,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8407,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8433,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8459,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8485,7 +8491,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H229" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8511,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8537,7 +8543,7 @@
         <v>0.6444444444444444</v>
       </c>
       <c r="H231" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8563,7 +8569,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H232" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8589,7 +8595,7 @@
         <v>0.4</v>
       </c>
       <c r="H233" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8615,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8641,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8667,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8693,7 +8699,7 @@
         <v>0.6170212765957447</v>
       </c>
       <c r="H237" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8719,7 +8725,7 @@
         <v>0.4042553191489361</v>
       </c>
       <c r="H238" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8745,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8771,7 +8777,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H240" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8797,7 +8803,7 @@
         <v>0.2575757575757576</v>
       </c>
       <c r="H241" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8823,7 +8829,7 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="H242" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8849,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8875,7 +8881,7 @@
         <v>0.2537313432835821</v>
       </c>
       <c r="H244" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8901,7 +8907,7 @@
         <v>0.25</v>
       </c>
       <c r="H245" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8927,7 +8933,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="H246" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8953,7 +8959,7 @@
         <v>0.5970149253731343</v>
       </c>
       <c r="H247" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8979,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9005,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9031,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9057,7 +9063,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H251" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9083,7 +9089,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H252" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9109,7 +9115,7 @@
         <v>0.6438356164383561</v>
       </c>
       <c r="H253" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9135,7 +9141,7 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="H254" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9161,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9187,7 +9193,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H256" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9213,7 +9219,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H257" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9239,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9265,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9291,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9317,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9343,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9369,7 +9375,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H263" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9395,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9421,7 +9427,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H265" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9447,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9473,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9499,7 +9505,7 @@
         <v>0.6933333333333335</v>
       </c>
       <c r="H268" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9525,7 +9531,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H269" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9551,7 +9557,7 @@
         <v>0.6438356164383562</v>
       </c>
       <c r="H270" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9577,7 +9583,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H271" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9603,7 +9609,7 @@
         <v>0.6621621621621621</v>
       </c>
       <c r="H272" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9629,7 +9635,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H273" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9655,7 +9661,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H274" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9681,7 +9687,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9707,7 +9713,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9733,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9759,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9785,7 +9791,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9811,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9837,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9863,7 +9869,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9889,7 +9895,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9915,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9941,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9967,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9993,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10019,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10045,7 +10051,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10071,7 +10077,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H290" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10097,7 +10103,7 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="H291" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10123,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10149,7 +10155,7 @@
         <v>0.3278688524590164</v>
       </c>
       <c r="H293" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10175,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10201,7 +10207,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H295" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10227,7 +10233,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H296" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10253,7 +10259,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H297" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10279,7 +10285,7 @@
         <v>0.6</v>
       </c>
       <c r="H298" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10305,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10331,7 +10337,7 @@
         <v>0.671875</v>
       </c>
       <c r="H300" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10357,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10383,7 +10389,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H302" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10409,7 +10415,7 @@
         <v>0.6769230769230767</v>
       </c>
       <c r="H303" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10435,7 +10441,7 @@
         <v>0.65625</v>
       </c>
       <c r="H304" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10461,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10487,7 +10493,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H306" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10513,7 +10519,7 @@
         <v>0.2878787878787878</v>
       </c>
       <c r="H307" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10539,7 +10545,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H308" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10565,7 +10571,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H309" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10591,7 +10597,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H310" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10617,7 +10623,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H311" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10643,7 +10649,7 @@
         <v>0.323076923076923</v>
       </c>
       <c r="H312" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10669,7 +10675,7 @@
         <v>0.6615384615384614</v>
       </c>
       <c r="H313" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10695,7 +10701,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H314" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10721,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10747,7 +10753,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H316" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10773,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10799,7 +10805,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H318" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10825,7 +10831,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H319" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10851,7 +10857,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H320" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10877,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10903,7 +10909,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H322" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10929,7 +10935,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H323" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10955,7 +10961,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H324" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10981,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11007,7 +11013,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H326" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11033,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11059,7 +11065,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H328" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11085,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11111,7 +11117,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H330" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11137,7 +11143,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H331" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11163,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11189,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11215,7 +11221,7 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="H334" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11241,7 +11247,7 @@
         <v>0.3108108108108108</v>
       </c>
       <c r="H335" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11267,7 +11273,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H336" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11293,7 +11299,7 @@
         <v>0.3013698630136986</v>
       </c>
       <c r="H337" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11319,7 +11325,7 @@
         <v>0.4084507042253522</v>
       </c>
       <c r="H338" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11345,7 +11351,7 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11371,7 +11377,7 @@
         <v>0.3098591549295775</v>
       </c>
       <c r="H340" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11397,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11423,7 +11429,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="H342" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11449,7 +11455,7 @@
         <v>0.6056338028169015</v>
       </c>
       <c r="H343" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11475,7 +11481,7 @@
         <v>0.6142857142857143</v>
       </c>
       <c r="H344" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11501,7 +11507,7 @@
         <v>0.2714285714285714</v>
       </c>
       <c r="H345" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11527,7 +11533,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11553,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11579,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11605,7 +11611,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11631,7 +11637,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11683,7 +11689,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11709,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11761,7 +11767,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H355" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11787,7 +11793,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H356" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11813,7 +11819,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11839,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11865,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11891,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11917,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11943,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11969,7 +11975,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H363" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11995,7 +12001,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H364" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12021,7 +12027,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H365" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12047,7 +12053,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H366" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12073,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12099,7 +12105,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H368" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12125,7 +12131,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12151,7 +12157,7 @@
         <v>0.4749999999999999</v>
       </c>
       <c r="H370" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12177,7 +12183,7 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="H371" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12203,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12229,7 +12235,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H373" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12255,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12281,7 +12287,7 @@
         <v>0.3050847457627119</v>
       </c>
       <c r="H375" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12307,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12333,7 +12339,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H377" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12359,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12385,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12411,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12437,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12463,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12489,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12515,7 +12521,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="H384" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12541,7 +12547,7 @@
         <v>0.4324324324324324</v>
       </c>
       <c r="H385" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12567,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12593,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12619,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12645,7 +12651,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H389" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12671,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12697,7 +12703,7 @@
         <v>0.6065573770491803</v>
       </c>
       <c r="H391" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12723,7 +12729,7 @@
         <v>0.2698412698412698</v>
       </c>
       <c r="H392" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12749,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12775,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12801,7 +12807,7 @@
         <v>0.6949152542372882</v>
       </c>
       <c r="H395" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12827,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12853,7 +12859,7 @@
         <v>0.6935483870967742</v>
       </c>
       <c r="H397" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12879,7 +12885,7 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="H398" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12905,7 +12911,7 @@
         <v>0.3387096774193549</v>
       </c>
       <c r="H399" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12931,7 +12937,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H400" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12957,7 +12963,7 @@
         <v>0.6557377049180328</v>
       </c>
       <c r="H401" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12983,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13009,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13035,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13061,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13087,7 +13093,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13113,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13139,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13165,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13191,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13217,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13243,7 +13249,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13269,7 +13275,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13295,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13321,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13347,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13373,7 +13379,7 @@
         <v>0.296875</v>
       </c>
       <c r="H417" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13399,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13425,7 +13431,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H419" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13451,7 +13457,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H420" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13477,7 +13483,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H421" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13503,7 +13509,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H422" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13529,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13555,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13581,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13607,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13633,7 +13639,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H427" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13659,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13685,7 +13691,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H429" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13711,7 +13717,7 @@
         <v>0.6349206349206349</v>
       </c>
       <c r="H430" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13737,7 +13743,7 @@
         <v>0.296875</v>
       </c>
       <c r="H431" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13763,7 +13769,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H432" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13789,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13815,7 +13821,7 @@
         <v>0.6376811594202898</v>
       </c>
       <c r="H434" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13841,7 +13847,7 @@
         <v>0.3432835820895522</v>
       </c>
       <c r="H435" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13867,7 +13873,7 @@
         <v>0.7164179104477613</v>
       </c>
       <c r="H436" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13893,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13919,7 +13925,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13945,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13971,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13997,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14023,7 +14029,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14049,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14075,7 +14081,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14101,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14127,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14153,7 +14159,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H447" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14179,7 +14185,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14205,7 +14211,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H449" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14231,7 +14237,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14257,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14283,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14309,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14335,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14361,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14387,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14413,7 +14419,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H457" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14439,7 +14445,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14465,7 +14471,7 @@
         <v>0.640625</v>
       </c>
       <c r="H459" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14491,7 +14497,7 @@
         <v>0.3125</v>
       </c>
       <c r="H460" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14517,7 +14523,7 @@
         <v>0.625</v>
       </c>
       <c r="H461" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14543,7 +14549,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14569,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14595,7 +14601,7 @@
         <v>0.6461538461538461</v>
       </c>
       <c r="H464" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14621,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14647,7 +14653,7 @@
         <v>0.65625</v>
       </c>
       <c r="H466" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14673,7 +14679,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H467" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14699,7 +14705,7 @@
         <v>0.6290322580645161</v>
       </c>
       <c r="H468" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14725,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14751,7 +14757,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H470" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14777,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14803,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14829,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14855,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14881,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14907,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14933,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14959,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14985,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15011,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15037,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15063,7 +15069,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15089,7 +15095,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15115,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15141,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15167,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15193,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15219,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15245,7 +15251,7 @@
         <v>0.7213114754098361</v>
       </c>
       <c r="H489" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15271,7 +15277,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H490" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15297,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15323,7 +15329,7 @@
         <v>0.7258064516129032</v>
       </c>
       <c r="H492" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15349,7 +15355,7 @@
         <v>0.7049180327868854</v>
       </c>
       <c r="H493" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15375,7 +15381,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15401,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15427,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15453,7 +15459,7 @@
         <v>0.7</v>
       </c>
       <c r="H497" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15479,7 +15485,7 @@
         <v>0.7</v>
       </c>
       <c r="H498" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15505,7 +15511,7 @@
         <v>0.35</v>
       </c>
       <c r="H499" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15531,7 +15537,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="H500" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15557,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15583,7 +15589,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15609,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15635,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15661,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15687,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15713,7 +15719,7 @@
         <v>0.3558999999999999</v>
       </c>
       <c r="H507" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15739,7 +15745,7 @@
         <v>0.6393</v>
       </c>
       <c r="H508" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15765,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15791,7 +15797,7 @@
         <v>0.525</v>
       </c>
       <c r="H510" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15817,7 +15823,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15843,7 +15849,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15869,7 +15875,7 @@
         <v>0.5349</v>
       </c>
       <c r="H513" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15895,7 +15901,7 @@
         <v>0.5227000000000001</v>
       </c>
       <c r="H514" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15921,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15947,7 +15953,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15973,7 +15979,7 @@
         <v>0.6949</v>
       </c>
       <c r="H517" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15999,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16025,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16051,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16077,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16103,7 +16109,7 @@
         <v>0.5238</v>
       </c>
       <c r="H522" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16129,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16155,7 +16161,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16181,7 +16187,7 @@
         <v>0.6934999999999999</v>
       </c>
       <c r="H525" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16207,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16233,7 +16239,7 @@
         <v>0.6562</v>
       </c>
       <c r="H527" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16259,7 +16265,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16285,7 +16291,7 @@
         <v>0.3548000000000001</v>
       </c>
       <c r="H529" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16311,7 +16317,7 @@
         <v>0.65</v>
       </c>
       <c r="H530" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16337,7 +16343,7 @@
         <v>0.6721</v>
       </c>
       <c r="H531" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16363,7 +16369,7 @@
         <v>0.6721</v>
       </c>
       <c r="H532" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16389,7 +16395,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16415,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16441,7 +16447,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16467,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16493,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16519,7 +16525,7 @@
         <v>0.5366</v>
       </c>
       <c r="H538" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16545,7 +16551,7 @@
         <v>0.5122</v>
       </c>
       <c r="H539" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16571,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16597,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16623,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16649,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16675,7 +16681,7 @@
         <v>0.5263</v>
       </c>
       <c r="H544" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16701,7 +16707,7 @@
         <v>0.5263</v>
       </c>
       <c r="H545" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16727,7 +16733,7 @@
         <v>0.5135</v>
       </c>
       <c r="H546" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16753,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16779,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16805,7 +16811,7 @@
         <v>0.4872</v>
       </c>
       <c r="H549" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16831,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16857,7 +16863,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16883,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16909,7 +16915,7 @@
         <v>0.5122</v>
       </c>
       <c r="H553" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16935,7 +16941,7 @@
         <v>0.5238</v>
       </c>
       <c r="H554" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16961,7 +16967,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16987,7 +16993,7 @@
         <v>0.5349</v>
       </c>
       <c r="H556" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17013,7 +17019,7 @@
         <v>0.5116000000000001</v>
       </c>
       <c r="H557" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17039,7 +17045,7 @@
         <v>0.5238</v>
       </c>
       <c r="H558" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17065,7 +17071,7 @@
         <v>0.5122</v>
       </c>
       <c r="H559" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17091,7 +17097,7 @@
         <v>0.4878</v>
       </c>
       <c r="H560" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17117,7 +17123,7 @@
         <v>0.4878</v>
       </c>
       <c r="H561" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17143,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17169,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17195,7 +17201,7 @@
         <v>0.4872</v>
       </c>
       <c r="H564" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17221,7 +17227,7 @@
         <v>0.6545000000000001</v>
       </c>
       <c r="H565" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17247,7 +17253,7 @@
         <v>0.6607</v>
       </c>
       <c r="H566" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17273,7 +17279,7 @@
         <v>0.4737000000000001</v>
       </c>
       <c r="H567" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17299,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17325,7 +17331,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17351,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17377,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17387,7 +17393,13 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
         <v>0</v>
       </c>
       <c r="F572">
@@ -17397,7 +17409,53 @@
         <v>0.439</v>
       </c>
       <c r="H572" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
